--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -441,6 +441,13 @@
     <t>US Core DocumentReference Authentication Time Extension"</t>
   </si>
   <si>
+    <t>When the information in the document was verified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>DocumentReference.modifierExtension</t>
   </si>
   <si>
@@ -1260,7 +1267,7 @@
     <t>us-core-authentication-time</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-authentication-time</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-authentication-time</t>
   </si>
   <si>
     <t>USCoreAuthenticationTimeExtension</t>
@@ -1291,13 +1298,6 @@
   </si>
   <si>
     <t>Authentication time</t>
-  </si>
-  <si>
-    <t>When the information in the document was verified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -1645,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24">
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25">
@@ -1669,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27">
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28">
@@ -1699,7 +1699,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31">
@@ -1731,7 +1731,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35">
@@ -1759,7 +1759,7 @@
         <v>30</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41">
@@ -1796,18 +1796,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2849,7 @@
         <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2909,7 +2909,7 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>132</v>
@@ -2920,14 +2920,14 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
@@ -2949,16 +2949,16 @@
         <v>126</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q11" t="s" s="2">
         <v>23</v>
@@ -3007,7 +3007,7 @@
         <v>23</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>75</v>
@@ -3027,10 +3027,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3053,19 +3053,19 @@
         <v>84</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q12" t="s" s="2">
         <v>23</v>
@@ -3114,7 +3114,7 @@
         <v>23</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>75</v>
@@ -3134,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3160,13 +3160,13 @@
         <v>84</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3217,7 +3217,7 @@
         <v>23</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
@@ -3237,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3266,13 +3266,13 @@
         <v>103</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
@@ -3298,11 +3298,11 @@
         <v>23</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>23</v>
@@ -3320,7 +3320,7 @@
         <v>23</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>83</v>
@@ -3340,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3369,13 +3369,13 @@
         <v>103</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
@@ -3401,13 +3401,13 @@
         <v>23</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>23</v>
@@ -3425,7 +3425,7 @@
         <v>23</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
@@ -3445,10 +3445,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3471,16 +3471,16 @@
         <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
@@ -3506,13 +3506,13 @@
         <v>23</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>23</v>
@@ -3530,7 +3530,7 @@
         <v>23</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
@@ -3550,14 +3550,14 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
@@ -3576,16 +3576,16 @@
         <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
@@ -3611,19 +3611,19 @@
         <v>23</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>23</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" t="s" s="2">
@@ -3633,7 +3633,7 @@
         <v>130</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>75</v>
@@ -3653,16 +3653,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
@@ -3681,16 +3681,16 @@
         <v>84</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
@@ -3716,13 +3716,13 @@
         <v>23</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>23</v>
@@ -3740,7 +3740,7 @@
         <v>23</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>75</v>
@@ -3760,10 +3760,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3786,13 +3786,13 @@
         <v>84</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3843,7 +3843,7 @@
         <v>23</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>75</v>
@@ -3863,14 +3863,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
@@ -3889,16 +3889,16 @@
         <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
@@ -3948,7 +3948,7 @@
         <v>23</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>75</v>
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3994,16 +3994,16 @@
         <v>84</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
@@ -4053,7 +4053,7 @@
         <v>23</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
@@ -4073,10 +4073,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4099,16 +4099,16 @@
         <v>23</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -4158,7 +4158,7 @@
         <v>23</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>75</v>
@@ -4178,10 +4178,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4204,13 +4204,13 @@
         <v>23</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4261,7 +4261,7 @@
         <v>23</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>75</v>
@@ -4281,14 +4281,14 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
@@ -4310,13 +4310,13 @@
         <v>126</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -4357,7 +4357,7 @@
         <v>129</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>23</v>
@@ -4366,7 +4366,7 @@
         <v>130</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>75</v>
@@ -4386,10 +4386,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>134</v>
@@ -4420,7 +4420,7 @@
         <v>136</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4471,7 +4471,7 @@
         <v>23</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
@@ -4491,10 +4491,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4517,16 +4517,16 @@
         <v>84</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -4576,7 +4576,7 @@
         <v>23</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>75</v>
@@ -4585,7 +4585,7 @@
         <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>95</v>
@@ -4596,10 +4596,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4625,13 +4625,13 @@
         <v>97</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -4657,13 +4657,13 @@
         <v>23</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>23</v>
@@ -4681,7 +4681,7 @@
         <v>23</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
@@ -4701,10 +4701,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4727,16 +4727,16 @@
         <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -4786,7 +4786,7 @@
         <v>23</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
@@ -4806,10 +4806,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4832,16 +4832,16 @@
         <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -4891,7 +4891,7 @@
         <v>23</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
@@ -4911,10 +4911,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4937,16 +4937,16 @@
         <v>23</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -4996,7 +4996,7 @@
         <v>23</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>75</v>
@@ -5016,10 +5016,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5042,16 +5042,16 @@
         <v>84</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
@@ -5101,7 +5101,7 @@
         <v>23</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>75</v>
@@ -5121,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5147,13 +5147,13 @@
         <v>23</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -5204,7 +5204,7 @@
         <v>23</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
@@ -5224,14 +5224,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -5253,13 +5253,13 @@
         <v>126</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
@@ -5309,7 +5309,7 @@
         <v>23</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>75</v>
@@ -5329,14 +5329,14 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
@@ -5358,16 +5358,16 @@
         <v>126</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>23</v>
@@ -5416,7 +5416,7 @@
         <v>23</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
@@ -5436,10 +5436,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5465,13 +5465,13 @@
         <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -5497,13 +5497,13 @@
         <v>23</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>23</v>
@@ -5521,7 +5521,7 @@
         <v>23</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>83</v>
@@ -5541,10 +5541,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5567,13 +5567,13 @@
         <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5624,7 +5624,7 @@
         <v>23</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>83</v>
@@ -5644,10 +5644,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5670,19 +5670,19 @@
         <v>84</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>23</v>
@@ -5731,7 +5731,7 @@
         <v>23</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
@@ -5751,10 +5751,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5777,19 +5777,19 @@
         <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>23</v>
@@ -5814,13 +5814,13 @@
         <v>23</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>23</v>
@@ -5838,7 +5838,7 @@
         <v>23</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
@@ -5858,10 +5858,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5884,13 +5884,13 @@
         <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5941,7 +5941,7 @@
         <v>23</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>83</v>
@@ -5961,10 +5961,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5987,13 +5987,13 @@
         <v>23</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6044,7 +6044,7 @@
         <v>23</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>75</v>
@@ -6064,14 +6064,14 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s" s="2">
@@ -6093,13 +6093,13 @@
         <v>126</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
@@ -6149,7 +6149,7 @@
         <v>23</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>75</v>
@@ -6169,14 +6169,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6198,16 +6198,16 @@
         <v>126</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q42" t="s" s="2">
         <v>23</v>
@@ -6256,7 +6256,7 @@
         <v>23</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>75</v>
@@ -6276,10 +6276,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6302,16 +6302,16 @@
         <v>84</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
@@ -6361,7 +6361,7 @@
         <v>23</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>83</v>
@@ -6373,7 +6373,7 @@
         <v>23</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6407,13 +6407,13 @@
         <v>23</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -6464,7 +6464,7 @@
         <v>23</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
@@ -6484,14 +6484,14 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
@@ -6513,13 +6513,13 @@
         <v>126</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
@@ -6560,7 +6560,7 @@
         <v>129</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>23</v>
@@ -6569,7 +6569,7 @@
         <v>130</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
@@ -6589,10 +6589,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6618,14 +6618,14 @@
         <v>103</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q46" t="s" s="2">
         <v>23</v>
@@ -6638,7 +6638,7 @@
         <v>23</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="V46" t="s" s="2">
         <v>23</v>
@@ -6650,13 +6650,13 @@
         <v>23</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AB46" t="s" s="2">
         <v>23</v>
@@ -6674,7 +6674,7 @@
         <v>23</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
@@ -6694,10 +6694,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6723,14 +6723,14 @@
         <v>103</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q47" t="s" s="2">
         <v>23</v>
@@ -6743,7 +6743,7 @@
         <v>23</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="V47" t="s" s="2">
         <v>23</v>
@@ -6779,7 +6779,7 @@
         <v>23</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
@@ -6799,10 +6799,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6825,19 +6825,19 @@
         <v>23</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q48" t="s" s="2">
         <v>23</v>
@@ -6886,7 +6886,7 @@
         <v>23</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
@@ -6895,7 +6895,7 @@
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>95</v>
@@ -6906,10 +6906,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6932,19 +6932,19 @@
         <v>84</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>23</v>
@@ -6957,7 +6957,7 @@
         <v>23</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="V49" t="s" s="2">
         <v>23</v>
@@ -6993,7 +6993,7 @@
         <v>23</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>75</v>
@@ -7002,7 +7002,7 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>95</v>
@@ -7013,10 +7013,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7039,19 +7039,19 @@
         <v>84</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>23</v>
@@ -7100,7 +7100,7 @@
         <v>23</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>75</v>
@@ -7120,10 +7120,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7146,19 +7146,19 @@
         <v>84</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q51" t="s" s="2">
         <v>23</v>
@@ -7207,7 +7207,7 @@
         <v>23</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>75</v>
@@ -7227,10 +7227,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7253,17 +7253,17 @@
         <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>23</v>
@@ -7276,7 +7276,7 @@
         <v>23</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="V52" t="s" s="2">
         <v>23</v>
@@ -7312,7 +7312,7 @@
         <v>23</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>75</v>
@@ -7332,10 +7332,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7358,17 +7358,17 @@
         <v>84</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>23</v>
@@ -7417,7 +7417,7 @@
         <v>23</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>75</v>
@@ -7437,10 +7437,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7463,16 +7463,16 @@
         <v>84</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -7498,11 +7498,11 @@
         <v>23</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AB54" t="s" s="2">
         <v>23</v>
@@ -7520,7 +7520,7 @@
         <v>23</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
@@ -7540,10 +7540,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7566,16 +7566,16 @@
         <v>84</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -7625,7 +7625,7 @@
         <v>23</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
@@ -7645,10 +7645,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7671,13 +7671,13 @@
         <v>23</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -7728,7 +7728,7 @@
         <v>23</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>75</v>
@@ -7748,14 +7748,14 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
@@ -7777,13 +7777,13 @@
         <v>126</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
@@ -7833,7 +7833,7 @@
         <v>23</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>75</v>
@@ -7853,14 +7853,14 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
@@ -7882,16 +7882,16 @@
         <v>126</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>23</v>
@@ -7940,7 +7940,7 @@
         <v>23</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>75</v>
@@ -7960,10 +7960,10 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7986,13 +7986,13 @@
         <v>23</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -8043,7 +8043,7 @@
         <v>23</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>75</v>
@@ -8063,10 +8063,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8089,16 +8089,16 @@
         <v>23</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8124,13 +8124,13 @@
         <v>23</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AB60" t="s" s="2">
         <v>23</v>
@@ -8148,7 +8148,7 @@
         <v>23</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>75</v>
@@ -8168,10 +8168,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8194,13 +8194,13 @@
         <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -8251,7 +8251,7 @@
         <v>23</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
@@ -8271,10 +8271,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8297,13 +8297,13 @@
         <v>23</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8330,13 +8330,13 @@
         <v>23</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AB62" t="s" s="2">
         <v>23</v>
@@ -8354,7 +8354,7 @@
         <v>23</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>75</v>
@@ -8374,10 +8374,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8400,19 +8400,19 @@
         <v>23</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P63" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q63" t="s" s="2">
         <v>23</v>
@@ -8437,13 +8437,13 @@
         <v>23</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AB63" t="s" s="2">
         <v>23</v>
@@ -8461,7 +8461,7 @@
         <v>23</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>75</v>
@@ -8481,10 +8481,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8507,13 +8507,13 @@
         <v>23</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -8564,7 +8564,7 @@
         <v>23</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>75</v>
@@ -8584,10 +8584,10 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8610,16 +8610,16 @@
         <v>23</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
@@ -8669,7 +8669,7 @@
         <v>23</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>75</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>127</v>
@@ -8718,10 +8718,10 @@
         <v>77</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>409</v>
+        <v>137</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -8781,7 +8781,7 @@
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>132</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>411</v>
@@ -8818,13 +8818,13 @@
         <v>23</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -8875,7 +8875,7 @@
         <v>23</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>75</v>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>412</v>
@@ -8969,7 +8969,7 @@
         <v>129</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>23</v>
@@ -8978,7 +8978,7 @@
         <v>130</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>75</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>413</v>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="R69" s="2"/>
       <c r="S69" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>23</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>417</v>
@@ -9129,7 +9129,7 @@
         <v>23</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>418</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6518" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="538">
   <si>
     <t>Property</t>
   </si>
@@ -1012,6 +1012,9 @@
   </si>
   <si>
     <t>extensible</t>
+  </si>
+  <si>
+    <t>☞☞☞Extensible binding inherited from FHIR R4 `Location.type`☜☜☜</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-location-type</t>
@@ -1620,7 +1623,7 @@
     <t>US Core Location Sliced Profile</t>
   </si>
   <si>
-    <t>Type of function performed</t>
+    <t>&gt;&gt;&gt;&gt; Slicing type by value set &lt;&lt;&lt;&lt;&lt;</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
@@ -1639,39 +1642,6 @@
     <t>Extensible binding inherited from FHIR R4 `Location.type`</t>
   </si>
   <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.id</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.extension</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.id</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.extension</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.system</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.version</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.code</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.display</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.text</t>
-  </si>
-  <si>
     <t>Location.type:HealthcareServiceLocation</t>
   </si>
   <si>
@@ -1687,39 +1657,6 @@
     <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.1.11.20275</t>
   </si>
   <si>
-    <t>Location.type:HealthcareServiceLocation.id</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.extension</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.id</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.extension</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.system</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.version</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.code</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.display</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.text</t>
-  </si>
-  <si>
     <t>Location.type:FacilityTypeCodeValueSet</t>
   </si>
   <si>
@@ -1733,39 +1670,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.id</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.extension</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.id</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.extension</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.system</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.version</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.code</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.display</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.text</t>
   </si>
   <si>
     <t>Location.type:PlaceOfService</t>
@@ -2262,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45">
@@ -2270,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46">
@@ -2286,7 +2190,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48">
@@ -2294,7 +2198,7 @@
         <v>10</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49">
@@ -2420,7 +2324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK193"/>
+  <dimension ref="A1:AK149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2430,7 +2334,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="24.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="64.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="31.74609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
@@ -7590,9 +7494,11 @@
       <c r="Y49" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Z49" s="2"/>
+      <c r="Z49" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="AA49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>75</v>
@@ -7630,10 +7536,10 @@
         <v>266</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7733,10 +7639,10 @@
         <v>266</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7806,16 +7712,16 @@
         <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>207</v>
@@ -7838,10 +7744,10 @@
         <v>266</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7867,16 +7773,16 @@
         <v>293</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>75</v>
@@ -7925,7 +7831,7 @@
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7945,10 +7851,10 @@
         <v>266</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8048,10 +7954,10 @@
         <v>266</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8121,16 +8027,16 @@
         <v>75</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>207</v>
@@ -8153,10 +8059,10 @@
         <v>266</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8182,16 +8088,16 @@
         <v>98</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>75</v>
@@ -8240,7 +8146,7 @@
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8260,10 +8166,10 @@
         <v>266</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8289,13 +8195,13 @@
         <v>201</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
@@ -8345,7 +8251,7 @@
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8365,10 +8271,10 @@
         <v>266</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8394,14 +8300,14 @@
         <v>104</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>75</v>
@@ -8450,7 +8356,7 @@
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -8470,10 +8376,10 @@
         <v>266</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8499,14 +8405,14 @@
         <v>201</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>75</v>
@@ -8555,7 +8461,7 @@
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -8575,10 +8481,10 @@
         <v>266</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8601,19 +8507,19 @@
         <v>85</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>75</v>
@@ -8662,7 +8568,7 @@
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8682,10 +8588,10 @@
         <v>266</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8711,16 +8617,16 @@
         <v>201</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q60" t="s" s="2">
         <v>75</v>
@@ -8769,7 +8675,7 @@
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
@@ -8789,10 +8695,10 @@
         <v>266</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8815,13 +8721,13 @@
         <v>75</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -8872,7 +8778,7 @@
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8892,10 +8798,10 @@
         <v>266</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8918,19 +8824,19 @@
         <v>75</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q62" t="s" s="2">
         <v>75</v>
@@ -8979,7 +8885,7 @@
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8999,10 +8905,10 @@
         <v>266</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9102,10 +9008,10 @@
         <v>266</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9175,16 +9081,16 @@
         <v>75</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>207</v>
@@ -9207,10 +9113,10 @@
         <v>266</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9236,16 +9142,16 @@
         <v>104</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q65" t="s" s="2">
         <v>75</v>
@@ -9258,7 +9164,7 @@
         <v>75</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="V65" t="s" s="2">
         <v>75</v>
@@ -9273,10 +9179,10 @@
         <v>150</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AB65" t="s" s="2">
         <v>75</v>
@@ -9294,7 +9200,7 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -9314,10 +9220,10 @@
         <v>266</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9343,13 +9249,13 @@
         <v>104</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
@@ -9363,7 +9269,7 @@
         <v>75</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="V66" t="s" s="2">
         <v>75</v>
@@ -9378,10 +9284,10 @@
         <v>150</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>75</v>
@@ -9399,7 +9305,7 @@
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
@@ -9419,10 +9325,10 @@
         <v>266</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9448,16 +9354,16 @@
         <v>201</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q67" t="s" s="2">
         <v>75</v>
@@ -9470,7 +9376,7 @@
         <v>75</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="V67" t="s" s="2">
         <v>75</v>
@@ -9506,7 +9412,7 @@
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -9526,10 +9432,10 @@
         <v>266</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9555,10 +9461,10 @@
         <v>201</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -9573,7 +9479,7 @@
         <v>75</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="V68" t="s" s="2">
         <v>75</v>
@@ -9609,7 +9515,7 @@
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9629,14 +9535,14 @@
         <v>266</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" t="s" s="2">
@@ -9658,10 +9564,10 @@
         <v>201</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -9676,7 +9582,7 @@
         <v>75</v>
       </c>
       <c r="U69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="V69" t="s" s="2">
         <v>75</v>
@@ -9712,7 +9618,7 @@
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9732,14 +9638,14 @@
         <v>266</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" t="s" s="2">
@@ -9761,13 +9667,13 @@
         <v>201</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -9781,7 +9687,7 @@
         <v>75</v>
       </c>
       <c r="U70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V70" t="s" s="2">
         <v>75</v>
@@ -9817,7 +9723,7 @@
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9837,14 +9743,14 @@
         <v>266</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" t="s" s="2">
@@ -9866,10 +9772,10 @@
         <v>201</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -9884,7 +9790,7 @@
         <v>75</v>
       </c>
       <c r="U71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="V71" t="s" s="2">
         <v>75</v>
@@ -9899,10 +9805,10 @@
         <v>320</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>75</v>
@@ -9920,7 +9826,7 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -9940,14 +9846,14 @@
         <v>266</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" t="s" s="2">
@@ -9969,10 +9875,10 @@
         <v>201</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9987,7 +9893,7 @@
         <v>75</v>
       </c>
       <c r="U72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="V72" t="s" s="2">
         <v>75</v>
@@ -10023,7 +9929,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -10043,10 +9949,10 @@
         <v>266</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10072,13 +9978,13 @@
         <v>201</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
@@ -10128,7 +10034,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -10148,10 +10054,10 @@
         <v>266</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10174,17 +10080,17 @@
         <v>85</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q74" t="s" s="2">
         <v>75</v>
@@ -10197,7 +10103,7 @@
         <v>75</v>
       </c>
       <c r="U74" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V74" t="s" s="2">
         <v>75</v>
@@ -10233,7 +10139,7 @@
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10253,10 +10159,10 @@
         <v>266</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10282,14 +10188,14 @@
         <v>154</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>75</v>
@@ -10317,10 +10223,10 @@
         <v>163</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AB75" t="s" s="2">
         <v>75</v>
@@ -10338,7 +10244,7 @@
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -10358,10 +10264,10 @@
         <v>266</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10387,14 +10293,14 @@
         <v>193</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q76" t="s" s="2">
         <v>75</v>
@@ -10443,7 +10349,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
@@ -10463,10 +10369,10 @@
         <v>266</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10566,10 +10472,10 @@
         <v>266</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10671,10 +10577,10 @@
         <v>266</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10778,10 +10684,10 @@
         <v>266</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10804,13 +10710,13 @@
         <v>75</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -10861,7 +10767,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>84</v>
@@ -10881,10 +10787,10 @@
         <v>266</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10907,13 +10813,13 @@
         <v>75</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -10964,7 +10870,7 @@
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>84</v>
@@ -10984,10 +10890,10 @@
         <v>266</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11010,13 +10916,13 @@
         <v>75</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -11067,7 +10973,7 @@
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -11087,10 +10993,10 @@
         <v>266</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11113,19 +11019,19 @@
         <v>85</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q83" t="s" s="2">
         <v>75</v>
@@ -11174,7 +11080,7 @@
         <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>76</v>
@@ -11194,10 +11100,10 @@
         <v>266</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11220,17 +11126,17 @@
         <v>75</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q84" t="s" s="2">
         <v>75</v>
@@ -11279,7 +11185,7 @@
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
@@ -11299,10 +11205,10 @@
         <v>266</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11328,13 +11234,13 @@
         <v>193</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
@@ -11384,7 +11290,7 @@
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11404,10 +11310,10 @@
         <v>266</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11507,10 +11413,10 @@
         <v>266</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11612,10 +11518,10 @@
         <v>266</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11719,10 +11625,10 @@
         <v>266</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11748,10 +11654,10 @@
         <v>104</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -11781,10 +11687,10 @@
         <v>150</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AB89" t="s" s="2">
         <v>75</v>
@@ -11802,7 +11708,7 @@
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11822,10 +11728,10 @@
         <v>266</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11848,13 +11754,13 @@
         <v>75</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11905,7 +11811,7 @@
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11925,10 +11831,10 @@
         <v>266</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11951,13 +11857,13 @@
         <v>75</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -12008,7 +11914,7 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -12028,10 +11934,10 @@
         <v>266</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12054,13 +11960,13 @@
         <v>75</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -12111,7 +12017,7 @@
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -12131,10 +12037,10 @@
         <v>266</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12160,10 +12066,10 @@
         <v>201</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -12214,7 +12120,7 @@
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12234,10 +12140,10 @@
         <v>266</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12260,17 +12166,17 @@
         <v>75</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>75</v>
@@ -12319,7 +12225,7 @@
         <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
@@ -12336,7 +12242,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>271</v>
@@ -12439,7 +12345,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>275</v>
@@ -12544,7 +12450,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>276</v>
@@ -12647,7 +12553,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>277</v>
@@ -12752,7 +12658,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>278</v>
@@ -12857,7 +12763,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>279</v>
@@ -12962,7 +12868,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>280</v>
@@ -13067,7 +12973,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>281</v>
@@ -13172,7 +13078,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>282</v>
@@ -13279,7 +13185,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>283</v>
@@ -13384,7 +13290,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>287</v>
@@ -13487,7 +13393,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>292</v>
@@ -13590,7 +13496,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>298</v>
@@ -13695,7 +13601,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>302</v>
@@ -13802,7 +13708,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>307</v>
@@ -13907,7 +13813,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>311</v>
@@ -14014,7 +13920,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>317</v>
@@ -14028,7 +13934,7 @@
       </c>
       <c r="F111" s="2"/>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>77</v>
@@ -14046,7 +13952,7 @@
         <v>154</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>319</v>
@@ -14082,20 +13988,20 @@
         <v>319</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AC111" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AD111" s="2"/>
       <c r="AE111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>317</v>
@@ -14115,15 +14021,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>322</v>
+        <v>521</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="D112" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="E112" t="s" s="2">
         <v>75</v>
       </c>
@@ -14132,28 +14040,30 @@
         <v>76</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>202</v>
+        <v>523</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="Q112" t="s" s="2">
         <v>75</v>
       </c>
@@ -14177,13 +14087,11 @@
         <v>75</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Z112" s="2"/>
       <c r="AA112" t="s" s="2">
-        <v>75</v>
+        <v>519</v>
       </c>
       <c r="AB112" t="s" s="2">
         <v>75</v>
@@ -14201,34 +14109,36 @@
         <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>323</v>
+        <v>524</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="D113" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="E113" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
@@ -14244,21 +14154,21 @@
         <v>75</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>129</v>
+        <v>526</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P113" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="Q113" t="s" s="2">
         <v>75</v>
       </c>
@@ -14282,31 +14192,29 @@
         <v>75</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Z113" s="2"/>
       <c r="AA113" t="s" s="2">
-        <v>75</v>
+        <v>528</v>
       </c>
       <c r="AB113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -14318,32 +14226,34 @@
         <v>75</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>327</v>
+        <v>529</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="D114" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="E114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>75</v>
@@ -14352,19 +14262,17 @@
         <v>85</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>328</v>
+        <v>531</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
-        <v>331</v>
+        <v>532</v>
       </c>
       <c r="Q114" t="s" s="2">
         <v>75</v>
@@ -14389,13 +14297,11 @@
         <v>75</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Z114" s="2"/>
       <c r="AA114" t="s" s="2">
-        <v>75</v>
+        <v>533</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>75</v>
@@ -14413,7 +14319,7 @@
         <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>76</v>
@@ -14430,15 +14336,17 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>333</v>
+        <v>534</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="D115" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="E115" t="s" s="2">
         <v>75</v>
       </c>
@@ -14447,7 +14355,7 @@
         <v>76</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>75</v>
@@ -14456,19 +14364,21 @@
         <v>75</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>202</v>
+        <v>536</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="Q115" t="s" s="2">
         <v>75</v>
       </c>
@@ -14492,13 +14402,11 @@
         <v>75</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Z115" s="2"/>
       <c r="AA115" t="s" s="2">
-        <v>75</v>
+        <v>537</v>
       </c>
       <c r="AB115" t="s" s="2">
         <v>75</v>
@@ -14516,34 +14424,34 @@
         <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s" s="2">
@@ -14553,7 +14461,7 @@
         <v>77</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>75</v>
@@ -14562,17 +14470,15 @@
         <v>75</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>128</v>
+        <v>371</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="O116" s="2"/>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
         <v>75</v>
@@ -14609,19 +14515,19 @@
         <v>75</v>
       </c>
       <c r="AC116" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>207</v>
+        <v>370</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
@@ -14633,18 +14539,18 @@
         <v>75</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14652,7 +14558,7 @@
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>84</v>
@@ -14664,22 +14570,22 @@
         <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>98</v>
+        <v>375</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="P117" t="s" s="2">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="Q117" t="s" s="2">
         <v>75</v>
@@ -14728,7 +14634,7 @@
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
@@ -14745,13 +14651,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14771,20 +14677,18 @@
         <v>75</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L118" t="s" s="2">
         <v>201</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>342</v>
+        <v>202</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
         <v>75</v>
@@ -14833,7 +14737,7 @@
         <v>75</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>345</v>
+        <v>204</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>76</v>
@@ -14845,52 +14749,52 @@
         <v>75</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>347</v>
+        <v>129</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O119" s="2"/>
-      <c r="P119" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
         <v>75</v>
       </c>
@@ -14926,42 +14830,42 @@
         <v>75</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="AE119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -14978,23 +14882,25 @@
         <v>75</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O120" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P120" t="s" s="2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="Q120" t="s" s="2">
         <v>75</v>
@@ -15007,7 +14913,7 @@
         <v>75</v>
       </c>
       <c r="U120" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="V120" t="s" s="2">
         <v>75</v>
@@ -15019,13 +14925,13 @@
         <v>75</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="AB120" t="s" s="2">
         <v>75</v>
@@ -15043,7 +14949,7 @@
         <v>75</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
@@ -15060,13 +14966,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -15089,20 +14995,18 @@
         <v>85</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>357</v>
+        <v>104</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="P121" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
         <v>75</v>
       </c>
@@ -15114,7 +15018,7 @@
         <v>75</v>
       </c>
       <c r="U121" t="s" s="2">
-        <v>75</v>
+        <v>395</v>
       </c>
       <c r="V121" t="s" s="2">
         <v>75</v>
@@ -15126,13 +15030,13 @@
         <v>75</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>75</v>
+        <v>396</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>75</v>
+        <v>397</v>
       </c>
       <c r="AB121" t="s" s="2">
         <v>75</v>
@@ -15150,7 +15054,7 @@
         <v>75</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -15167,13 +15071,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15199,16 +15103,16 @@
         <v>201</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="P122" t="s" s="2">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="Q122" t="s" s="2">
         <v>75</v>
@@ -15221,7 +15125,7 @@
         <v>75</v>
       </c>
       <c r="U122" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="V122" t="s" s="2">
         <v>75</v>
@@ -15257,7 +15161,7 @@
         <v>75</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>76</v>
@@ -15274,17 +15178,15 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="D123" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>75</v>
       </c>
@@ -15305,18 +15207,16 @@
         <v>85</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>522</v>
+        <v>407</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="O123" s="2"/>
-      <c r="P123" t="s" s="2">
-        <v>522</v>
-      </c>
+      <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
         <v>75</v>
       </c>
@@ -15328,7 +15228,7 @@
         <v>75</v>
       </c>
       <c r="U123" t="s" s="2">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="V123" t="s" s="2">
         <v>75</v>
@@ -15340,11 +15240,13 @@
         <v>75</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Z123" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AA123" t="s" s="2">
-        <v>518</v>
+        <v>75</v>
       </c>
       <c r="AB123" t="s" s="2">
         <v>75</v>
@@ -15362,7 +15264,7 @@
         <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>76</v>
@@ -15379,17 +15281,17 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>523</v>
+        <v>411</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
@@ -15399,22 +15301,22 @@
         <v>84</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L124" t="s" s="2">
         <v>201</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>202</v>
+        <v>413</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>203</v>
+        <v>414</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -15429,7 +15331,7 @@
         <v>75</v>
       </c>
       <c r="U124" t="s" s="2">
-        <v>75</v>
+        <v>415</v>
       </c>
       <c r="V124" t="s" s="2">
         <v>75</v>
@@ -15465,7 +15367,7 @@
         <v>75</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
@@ -15477,29 +15379,29 @@
         <v>75</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>524</v>
+        <v>417</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>127</v>
+        <v>418</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>75</v>
@@ -15508,19 +15410,19 @@
         <v>75</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>129</v>
+        <v>419</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>206</v>
+        <v>420</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>131</v>
+        <v>421</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
@@ -15534,7 +15436,7 @@
         <v>75</v>
       </c>
       <c r="U125" t="s" s="2">
-        <v>75</v>
+        <v>422</v>
       </c>
       <c r="V125" t="s" s="2">
         <v>75</v>
@@ -15558,53 +15460,53 @@
         <v>75</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>207</v>
+        <v>423</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>525</v>
+        <v>424</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>327</v>
+        <v>424</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>75</v>
+        <v>425</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>85</v>
@@ -15616,20 +15518,16 @@
         <v>85</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="P126" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
         <v>75</v>
       </c>
@@ -15641,7 +15539,7 @@
         <v>75</v>
       </c>
       <c r="U126" t="s" s="2">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="V126" t="s" s="2">
         <v>75</v>
@@ -15653,13 +15551,13 @@
         <v>75</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="AB126" t="s" s="2">
         <v>75</v>
@@ -15677,13 +15575,13 @@
         <v>75</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>332</v>
+        <v>431</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>75</v>
@@ -15694,17 +15592,17 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>526</v>
+        <v>432</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>75</v>
+        <v>433</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" t="s" s="2">
@@ -15714,22 +15612,22 @@
         <v>84</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L127" t="s" s="2">
         <v>201</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -15744,7 +15642,7 @@
         <v>75</v>
       </c>
       <c r="U127" t="s" s="2">
-        <v>75</v>
+        <v>436</v>
       </c>
       <c r="V127" t="s" s="2">
         <v>75</v>
@@ -15780,7 +15678,7 @@
         <v>75</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>204</v>
+        <v>437</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
@@ -15792,29 +15690,29 @@
         <v>75</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>527</v>
+        <v>438</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>75</v>
@@ -15823,19 +15721,19 @@
         <v>75</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>129</v>
+        <v>439</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>206</v>
+        <v>440</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>131</v>
+        <v>441</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
@@ -15873,42 +15771,42 @@
         <v>75</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AD128" t="s" s="2">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>207</v>
+        <v>442</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>528</v>
+        <v>443</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15916,13 +15814,13 @@
       </c>
       <c r="F129" s="2"/>
       <c r="G129" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>75</v>
@@ -15931,19 +15829,17 @@
         <v>85</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>336</v>
+        <v>445</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>75</v>
@@ -15956,7 +15852,7 @@
         <v>75</v>
       </c>
       <c r="U129" t="s" s="2">
-        <v>75</v>
+        <v>448</v>
       </c>
       <c r="V129" t="s" s="2">
         <v>75</v>
@@ -15992,7 +15888,7 @@
         <v>75</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>340</v>
+        <v>449</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
@@ -16009,13 +15905,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>529</v>
+        <v>450</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16038,18 +15934,18 @@
         <v>85</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>342</v>
+        <v>451</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="P130" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="O130" s="2"/>
+      <c r="P130" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="Q130" t="s" s="2">
         <v>75</v>
       </c>
@@ -16073,13 +15969,13 @@
         <v>75</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>75</v>
+        <v>454</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>75</v>
+        <v>455</v>
       </c>
       <c r="AB130" t="s" s="2">
         <v>75</v>
@@ -16097,7 +15993,7 @@
         <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -16114,13 +16010,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>530</v>
+        <v>456</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>346</v>
+        <v>456</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16128,32 +16024,32 @@
       </c>
       <c r="F131" s="2"/>
       <c r="G131" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>347</v>
+        <v>457</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>348</v>
+        <v>458</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
-        <v>349</v>
+        <v>459</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>75</v>
@@ -16202,7 +16098,7 @@
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>350</v>
+        <v>456</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -16219,13 +16115,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>531</v>
+        <v>460</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>351</v>
+        <v>460</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16245,21 +16141,19 @@
         <v>75</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>201</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>353</v>
+        <v>203</v>
       </c>
       <c r="O132" s="2"/>
-      <c r="P132" t="s" s="2">
-        <v>354</v>
-      </c>
+      <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
         <v>75</v>
       </c>
@@ -16307,7 +16201,7 @@
         <v>75</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>355</v>
+        <v>204</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -16319,29 +16213,29 @@
         <v>75</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>356</v>
+        <v>461</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>75</v>
@@ -16350,23 +16244,21 @@
         <v>75</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>358</v>
+        <v>129</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>359</v>
+        <v>206</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
         <v>75</v>
       </c>
@@ -16414,65 +16306,65 @@
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>362</v>
+        <v>207</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>363</v>
+        <v>462</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>366</v>
+        <v>131</v>
       </c>
       <c r="P134" t="s" s="2">
-        <v>367</v>
+        <v>137</v>
       </c>
       <c r="Q134" t="s" s="2">
         <v>75</v>
@@ -16521,43 +16413,41 @@
         <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>368</v>
+        <v>212</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>534</v>
+        <v>463</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>75</v>
@@ -16566,21 +16456,19 @@
         <v>75</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>154</v>
+        <v>464</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>536</v>
+        <v>465</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>319</v>
+        <v>466</v>
       </c>
       <c r="O135" s="2"/>
-      <c r="P135" t="s" s="2">
-        <v>537</v>
-      </c>
+      <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
         <v>75</v>
       </c>
@@ -16604,11 +16492,13 @@
         <v>75</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Z135" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AA135" t="s" s="2">
-        <v>538</v>
+        <v>75</v>
       </c>
       <c r="AB135" t="s" s="2">
         <v>75</v>
@@ -16626,13 +16516,13 @@
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>317</v>
+        <v>463</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>75</v>
@@ -16643,13 +16533,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>539</v>
+        <v>467</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>322</v>
+        <v>467</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -16657,7 +16547,7 @@
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>84</v>
@@ -16672,13 +16562,13 @@
         <v>75</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>201</v>
+        <v>464</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>202</v>
+        <v>468</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>203</v>
+        <v>469</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -16729,10 +16619,10 @@
         <v>75</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>204</v>
+        <v>467</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>84</v>
@@ -16741,29 +16631,29 @@
         <v>75</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>323</v>
+        <v>470</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I137" t="s" s="2">
         <v>75</v>
@@ -16775,17 +16665,15 @@
         <v>75</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>128</v>
+        <v>464</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>129</v>
+        <v>471</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
         <v>75</v>
@@ -16822,42 +16710,42 @@
         <v>75</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>207</v>
+        <v>470</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>327</v>
+        <v>473</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16865,10 +16753,10 @@
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>85</v>
@@ -16880,19 +16768,19 @@
         <v>85</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>293</v>
+        <v>474</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>328</v>
+        <v>475</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>329</v>
+        <v>476</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>330</v>
+        <v>477</v>
       </c>
       <c r="P138" t="s" s="2">
-        <v>331</v>
+        <v>478</v>
       </c>
       <c r="Q138" t="s" s="2">
         <v>75</v>
@@ -16941,13 +16829,13 @@
         <v>75</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>332</v>
+        <v>473</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>75</v>
@@ -16958,13 +16846,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>333</v>
+        <v>479</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16987,16 +16875,18 @@
         <v>75</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>201</v>
+        <v>480</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>202</v>
+        <v>481</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>203</v>
+        <v>482</v>
       </c>
       <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
+      <c r="P139" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="Q139" t="s" s="2">
         <v>75</v>
       </c>
@@ -17044,7 +16934,7 @@
         <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>204</v>
+        <v>479</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>76</v>
@@ -17056,22 +16946,22 @@
         <v>75</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>334</v>
+        <v>484</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
@@ -17090,16 +16980,16 @@
         <v>75</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>129</v>
+        <v>485</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>206</v>
+        <v>486</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>131</v>
+        <v>487</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
@@ -17137,19 +17027,19 @@
         <v>75</v>
       </c>
       <c r="AC140" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AD140" t="s" s="2">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>207</v>
+        <v>484</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>76</v>
@@ -17161,18 +17051,18 @@
         <v>75</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>335</v>
+        <v>488</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17180,35 +17070,31 @@
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J141" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>336</v>
+        <v>202</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>75</v>
       </c>
@@ -17256,7 +17142,7 @@
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>76</v>
@@ -17268,29 +17154,29 @@
         <v>75</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>341</v>
+        <v>489</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>75</v>
@@ -17299,19 +17185,19 @@
         <v>75</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>342</v>
+        <v>129</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>343</v>
+        <v>206</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>344</v>
+        <v>131</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
@@ -17361,63 +17247,65 @@
         <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>345</v>
+        <v>207</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>346</v>
+        <v>490</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J143" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>347</v>
+        <v>210</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O143" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="P143" t="s" s="2">
-        <v>349</v>
+        <v>137</v>
       </c>
       <c r="Q143" t="s" s="2">
         <v>75</v>
@@ -17466,30 +17354,30 @@
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>351</v>
+        <v>491</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17500,7 +17388,7 @@
         <v>76</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>75</v>
@@ -17509,21 +17397,19 @@
         <v>75</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>352</v>
+        <v>492</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>353</v>
+        <v>493</v>
       </c>
       <c r="O144" s="2"/>
-      <c r="P144" t="s" s="2">
-        <v>354</v>
-      </c>
+      <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
         <v>75</v>
       </c>
@@ -17547,13 +17433,13 @@
         <v>75</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>75</v>
+        <v>494</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>75</v>
+        <v>495</v>
       </c>
       <c r="AB144" t="s" s="2">
         <v>75</v>
@@ -17571,13 +17457,13 @@
         <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>355</v>
+        <v>491</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>75</v>
@@ -17588,13 +17474,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>356</v>
+        <v>496</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17614,23 +17500,19 @@
         <v>75</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>358</v>
+        <v>497</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
         <v>75</v>
       </c>
@@ -17678,7 +17560,7 @@
         <v>75</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>362</v>
+        <v>496</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>76</v>
@@ -17695,13 +17577,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>363</v>
+        <v>499</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -17721,23 +17603,19 @@
         <v>75</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>364</v>
+        <v>501</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="P146" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>75</v>
       </c>
@@ -17785,7 +17663,7 @@
         <v>75</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>368</v>
+        <v>499</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>76</v>
@@ -17802,17 +17680,15 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="D147" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>75</v>
       </c>
@@ -17821,7 +17697,7 @@
         <v>76</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>75</v>
@@ -17830,21 +17706,19 @@
         <v>75</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>154</v>
+        <v>500</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>319</v>
+        <v>505</v>
       </c>
       <c r="O147" s="2"/>
-      <c r="P147" t="s" s="2">
-        <v>553</v>
-      </c>
+      <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
         <v>75</v>
       </c>
@@ -17868,11 +17742,13 @@
         <v>75</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Z147" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AA147" t="s" s="2">
-        <v>554</v>
+        <v>75</v>
       </c>
       <c r="AB147" t="s" s="2">
         <v>75</v>
@@ -17890,13 +17766,13 @@
         <v>75</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>75</v>
@@ -17907,13 +17783,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>322</v>
+        <v>506</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -17939,10 +17815,10 @@
         <v>201</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>202</v>
+        <v>507</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>203</v>
+        <v>508</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -17993,7 +17869,7 @@
         <v>75</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>204</v>
+        <v>506</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>76</v>
@@ -18005,22 +17881,22 @@
         <v>75</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>323</v>
+        <v>509</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
@@ -18039,18 +17915,18 @@
         <v>75</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>128</v>
+        <v>510</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>129</v>
+        <v>511</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P149" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="O149" s="2"/>
+      <c r="P149" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="Q149" t="s" s="2">
         <v>75</v>
       </c>
@@ -18086,19 +17962,19 @@
         <v>75</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>207</v>
+        <v>509</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>76</v>
@@ -18110,4612 +17986,6 @@
         <v>75</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F150" s="2"/>
-      <c r="G150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="P150" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Q150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R150" s="2"/>
-      <c r="S150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C151" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F151" s="2"/>
-      <c r="G151" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
-      <c r="Q151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R151" s="2"/>
-      <c r="S151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="F152" s="2"/>
-      <c r="G152" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P152" s="2"/>
-      <c r="Q152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R152" s="2"/>
-      <c r="S152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C153" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F153" s="2"/>
-      <c r="G153" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="P153" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="Q153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R153" s="2"/>
-      <c r="S153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C154" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F154" s="2"/>
-      <c r="G154" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="P154" s="2"/>
-      <c r="Q154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R154" s="2"/>
-      <c r="S154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C155" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F155" s="2"/>
-      <c r="G155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O155" s="2"/>
-      <c r="P155" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Q155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R155" s="2"/>
-      <c r="S155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F156" s="2"/>
-      <c r="G156" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="Q156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R156" s="2"/>
-      <c r="S156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F157" s="2"/>
-      <c r="G157" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="P157" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="Q157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R157" s="2"/>
-      <c r="S157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C158" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F158" s="2"/>
-      <c r="G158" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="P158" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="Q158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R158" s="2"/>
-      <c r="S158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="D159" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="E159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F159" s="2"/>
-      <c r="G159" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O159" s="2"/>
-      <c r="P159" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="Q159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R159" s="2"/>
-      <c r="S159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Z159" s="2"/>
-      <c r="AA159" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F160" s="2"/>
-      <c r="G160" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R160" s="2"/>
-      <c r="S160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C161" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F161" s="2"/>
-      <c r="G161" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="P161" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="Q161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R161" s="2"/>
-      <c r="S161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F162" s="2"/>
-      <c r="G162" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R162" s="2"/>
-      <c r="S162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="F163" s="2"/>
-      <c r="G163" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R163" s="2"/>
-      <c r="S163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F164" s="2"/>
-      <c r="G164" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="P164" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="Q164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R164" s="2"/>
-      <c r="S164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C165" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F165" s="2"/>
-      <c r="G165" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P165" s="2"/>
-      <c r="Q165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R165" s="2"/>
-      <c r="S165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B166" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C166" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F166" s="2"/>
-      <c r="G166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="P166" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Q166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R166" s="2"/>
-      <c r="S166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F167" s="2"/>
-      <c r="G167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R167" s="2"/>
-      <c r="S167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C168" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="F168" s="2"/>
-      <c r="G168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R168" s="2"/>
-      <c r="S168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="F169" s="2"/>
-      <c r="G169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="P169" s="2"/>
-      <c r="Q169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R169" s="2"/>
-      <c r="S169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="F170" s="2"/>
-      <c r="G170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K170" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R170" s="2"/>
-      <c r="S170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U170" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK170" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="F171" s="2"/>
-      <c r="G171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R171" s="2"/>
-      <c r="S171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U171" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="V171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C172" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F172" s="2"/>
-      <c r="G172" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="P172" s="2"/>
-      <c r="Q172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R172" s="2"/>
-      <c r="S172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AH172" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK172" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F173" s="2"/>
-      <c r="G173" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O173" s="2"/>
-      <c r="P173" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Q173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R173" s="2"/>
-      <c r="S173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F174" s="2"/>
-      <c r="G174" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O174" s="2"/>
-      <c r="P174" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="Q174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R174" s="2"/>
-      <c r="S174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F175" s="2"/>
-      <c r="G175" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O175" s="2"/>
-      <c r="P175" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="Q175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R175" s="2"/>
-      <c r="S175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C176" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F176" s="2"/>
-      <c r="G176" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-      <c r="Q176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R176" s="2"/>
-      <c r="S176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C177" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="F177" s="2"/>
-      <c r="G177" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P177" s="2"/>
-      <c r="Q177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R177" s="2"/>
-      <c r="S177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK177" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C178" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="D178" s="2"/>
-      <c r="E178" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="F178" s="2"/>
-      <c r="G178" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P178" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="Q178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R178" s="2"/>
-      <c r="S178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK178" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C179" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F179" s="2"/>
-      <c r="G179" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H179" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R179" s="2"/>
-      <c r="S179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK179" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C180" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F180" s="2"/>
-      <c r="G180" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H180" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R180" s="2"/>
-      <c r="S180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AH180" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI180" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C181" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F181" s="2"/>
-      <c r="G181" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R181" s="2"/>
-      <c r="S181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG181" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AH181" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI181" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK181" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C182" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F182" s="2"/>
-      <c r="G182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="P182" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="Q182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R182" s="2"/>
-      <c r="S182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C183" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F183" s="2"/>
-      <c r="G183" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H183" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O183" s="2"/>
-      <c r="P183" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Q183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R183" s="2"/>
-      <c r="S183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG183" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AH183" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI183" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ183" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK183" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C184" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="D184" s="2"/>
-      <c r="E184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F184" s="2"/>
-      <c r="G184" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="P184" s="2"/>
-      <c r="Q184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R184" s="2"/>
-      <c r="S184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK184" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B185" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F185" s="2"/>
-      <c r="G185" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
-      <c r="Q185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R185" s="2"/>
-      <c r="S185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG185" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AH185" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI185" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK185" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B186" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C186" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="D186" s="2"/>
-      <c r="E186" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="F186" s="2"/>
-      <c r="G186" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P186" s="2"/>
-      <c r="Q186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R186" s="2"/>
-      <c r="S186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG186" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AH186" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI186" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK186" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B187" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C187" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="F187" s="2"/>
-      <c r="G187" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J187" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K187" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P187" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="Q187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R187" s="2"/>
-      <c r="S187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG187" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AH187" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI187" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK187" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B188" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C188" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F188" s="2"/>
-      <c r="G188" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R188" s="2"/>
-      <c r="S188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ188" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK188" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C189" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F189" s="2"/>
-      <c r="G189" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R189" s="2"/>
-      <c r="S189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK189" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F190" s="2"/>
-      <c r="G190" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R190" s="2"/>
-      <c r="S190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK190" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B191" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C191" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F191" s="2"/>
-      <c r="G191" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R191" s="2"/>
-      <c r="S191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK191" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C192" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="E192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F192" s="2"/>
-      <c r="G192" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R192" s="2"/>
-      <c r="S192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG192" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AH192" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI192" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK192" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B193" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C193" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="D193" s="2"/>
-      <c r="E193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F193" s="2"/>
-      <c r="G193" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O193" s="2"/>
-      <c r="P193" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="Q193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R193" s="2"/>
-      <c r="S193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK193" t="s" s="2">
         <v>96</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="537">
   <si>
     <t>Property</t>
   </si>
@@ -1017,7 +1017,7 @@
     <t>☞☞☞Extensible binding inherited from FHIR R4 `Location.type`☜☜☜</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-location-type</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
   </si>
   <si>
     <t>Location.type.id</t>
@@ -1624,9 +1624,6 @@
   </si>
   <si>
     <t>&gt;&gt;&gt;&gt; Slicing type by value set &lt;&lt;&lt;&lt;&lt;</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -13988,13 +13985,13 @@
         <v>319</v>
       </c>
       <c r="AA111" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC111" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AD111" s="2"/>
       <c r="AE111" t="s" s="2">
@@ -14024,13 +14021,13 @@
         <v>514</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>317</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E112" t="s" s="2">
         <v>75</v>
@@ -14055,14 +14052,14 @@
         <v>154</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>319</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q112" t="s" s="2">
         <v>75</v>
@@ -14091,7 +14088,7 @@
       </c>
       <c r="Z112" s="2"/>
       <c r="AA112" t="s" s="2">
-        <v>519</v>
+        <v>322</v>
       </c>
       <c r="AB112" t="s" s="2">
         <v>75</v>
@@ -14129,13 +14126,13 @@
         <v>514</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>317</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E113" t="s" s="2">
         <v>75</v>
@@ -14160,14 +14157,14 @@
         <v>154</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>319</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q113" t="s" s="2">
         <v>75</v>
@@ -14196,7 +14193,7 @@
       </c>
       <c r="Z113" s="2"/>
       <c r="AA113" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB113" t="s" s="2">
         <v>75</v>
@@ -14234,13 +14231,13 @@
         <v>514</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>317</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E114" t="s" s="2">
         <v>75</v>
@@ -14265,14 +14262,14 @@
         <v>154</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>319</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q114" t="s" s="2">
         <v>75</v>
@@ -14301,7 +14298,7 @@
       </c>
       <c r="Z114" s="2"/>
       <c r="AA114" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>75</v>
@@ -14339,13 +14336,13 @@
         <v>514</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>317</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E115" t="s" s="2">
         <v>75</v>
@@ -14370,14 +14367,14 @@
         <v>154</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>319</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q115" t="s" s="2">
         <v>75</v>
@@ -14406,7 +14403,7 @@
       </c>
       <c r="Z115" s="2"/>
       <c r="AA115" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AB115" t="s" s="2">
         <v>75</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -25977,10 +25977,10 @@
         <v>108</v>
       </c>
       <c r="Z215" t="s" s="2">
-        <v>591</v>
+        <v>763</v>
       </c>
       <c r="AA215" t="s" s="2">
-        <v>587</v>
+        <v>764</v>
       </c>
       <c r="AB215" t="s" s="2">
         <v>75</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -2740,7 +2740,7 @@
     <t>Value set to describe the Goal</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/My-core-goal-description</t>
+    <t>http://loinc.org/vs/valid-hl7-attachment-requests</t>
   </si>
   <si>
     <t>Goal.subject</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -468,10 +468,10 @@
 </t>
   </si>
   <si>
-    <t>Kind of referral</t>
-  </si>
-  <si>
-    <t>Identifies the type of referral, constrained to valid HL7 attachment request codes from LOINC.</t>
+    <t>Kind of attachment</t>
+  </si>
+  <si>
+    <t>constrained to valid HL7 attachment request codes from LOINC.</t>
   </si>
   <si>
     <t>Because resource references will only be able to indicate 'Basic', the type of reference will need to be specified in a Profile identified as part of the resource.  Refer to the resource notes section for information on appropriate terminologies for this code.
@@ -832,6 +832,727 @@
   </si>
   <si>
     <t>Parameters.parameter:Foo.part:Part2.part</t>
+  </si>
+  <si>
+    <t>us-core-pmo-servicerequest</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pmo-servicerequest</t>
+  </si>
+  <si>
+    <t>USCorePMOServiceRequestProfile</t>
+  </si>
+  <si>
+    <t>US Core PMO ServiceRequest Profile</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The US Core PMO ServiceRequest Profile defines constraints for Portable Medical Orders (PMO) based on the FHIR R4 ServiceRequest resource. It establishes minimum expectations for recording, searching, and fetching PMO-related ServiceRequest information, specifying core elements, extensions, vocabularies, and value sets that SHALL be present to promote interoperability for PMO use cases, such as POLST and MOLST.
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
+  </si>
+  <si>
+    <t>diagnostic request
+referralreferral requesttransfer of care request</t>
+  </si>
+  <si>
+    <t>A request for a service to be performed</t>
+  </si>
+  <si>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>directive</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category:us-core-pmo</t>
+  </si>
+  <si>
+    <t>us-core-pmo</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>[Portable Medical Order panel codes](https://loinc.org/100821-8)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-pmo-servicerequest-category</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
+  </si>
+  <si>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>Portable Medical Order panel answers - mostly free-text</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-pmo-procedure-code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the PMO procedure or service.</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailed instructions
+</t>
+  </si>
+  <si>
+    <t>Additional order information</t>
+  </si>
+  <si>
+    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+  </si>
+  <si>
+    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>Codified order entry details which are based on order context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prr-1
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.text</t>
+  </si>
+  <si>
+    <t>Plain text representation to capture additional PMO order details.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.quantity[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+RatioRange</t>
+  </si>
+  <si>
+    <t>Service amount</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|Group|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location|Device)
+</t>
+  </si>
+  <si>
+    <t>Individual or Entity the service is ordered for</t>
+  </si>
+  <si>
+    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter in which the request was created</t>
+  </si>
+  <si>
+    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule
+</t>
+  </si>
+  <si>
+    <t>Period
+dateTimeTiming</t>
+  </si>
+  <si>
+    <t>When service should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the requested service should occur.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Preconditions for service</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>ServiceRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedOn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date request signed</t>
+  </si>
+  <si>
+    <t>When the request transitioned to being actionable.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requester</t>
+  </si>
+  <si>
+    <t>author
+orderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|PractitionerRole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device)
+</t>
+  </si>
+  <si>
+    <t>Who/what is requesting service</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialty
+</t>
+  </si>
+  <si>
+    <t>Performer role</t>
+  </si>
+  <si>
+    <t>Desired type of performer for doing the requested service.</t>
+  </si>
+  <si>
+    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
+  </si>
+  <si>
+    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request recipient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Requested performer</t>
+  </si>
+  <si>
+    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
+  </si>
+  <si>
+    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationCode</t>
+  </si>
+  <si>
+    <t>Requested location</t>
+  </si>
+  <si>
+    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>A location type where services are delivered.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for procedure or service</t>
+  </si>
+  <si>
+    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-adi-documentreference|us-core-condition|us-core-observation|us-core-diagnosticreport)
+</t>
+  </si>
+  <si>
+    <t>US Core ADI DocumentReference Profile or other US Core profiles that support the requested PMO service.</t>
+  </si>
+  <si>
+    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+</t>
+  </si>
+  <si>
+    <t>Associated insurance coverage</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo</t>
+  </si>
+  <si>
+    <t>Ask at order entry question
+AOE</t>
+  </si>
+  <si>
+    <t>Additional clinical information</t>
+  </si>
+  <si>
+    <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
+  </si>
+  <si>
+    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Procedure Samples</t>
+  </si>
+  <si>
+    <t>One or more specimens that the laboratory procedure will use.</t>
+  </si>
+  <si>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location
+</t>
+  </si>
+  <si>
+    <t>Location on Body</t>
+  </si>
+  <si>
+    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
+  </si>
+  <si>
+    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer-oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.relevantHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Provenance)
+</t>
+  </si>
+  <si>
+    <t>Request provenance</t>
+  </si>
+  <si>
+    <t>Key events in the history of the request.</t>
+  </si>
+  <si>
+    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important.+This SHALL NOT include the Provenance associated with this current version of the resource.  (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update.  Until then, it can be queried directly as the Provenance that points to this version using _revinclude+All Provenances should have some historical version of this Request as their subject.</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1299,6 +2020,168 @@
         <v>38</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1306,7 +2189,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK59"/>
+  <dimension ref="A1:AK110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1315,11 +2198,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.2890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="37.2265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="37.7265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
@@ -1340,14 +2223,14 @@
     <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="38.55078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="39.17578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="108.3203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="58.3984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="24.13671875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -7533,6 +8416,5349 @@
         <v>96</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R67" s="2"/>
+      <c r="S67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Q68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R71" s="2"/>
+      <c r="S71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R72" s="2"/>
+      <c r="S72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Q74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R74" s="2"/>
+      <c r="S74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R75" s="2"/>
+      <c r="S75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R76" s="2"/>
+      <c r="S76" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Q77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R77" s="2"/>
+      <c r="S77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AD77" s="2"/>
+      <c r="AE77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Q78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R78" s="2"/>
+      <c r="S78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Q80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R81" s="2"/>
+      <c r="S81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R82" s="2"/>
+      <c r="S82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R83" s="2"/>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Q84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R84" s="2"/>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Q85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R85" s="2"/>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R86" s="2"/>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R87" s="2"/>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R88" s="2"/>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Q89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R89" s="2"/>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Q90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R90" s="2"/>
+      <c r="S90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Q91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R91" s="2"/>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R92" s="2"/>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R93" s="2"/>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R94" s="2"/>
+      <c r="S94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R95" s="2"/>
+      <c r="S95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R96" s="2"/>
+      <c r="S96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R97" s="2"/>
+      <c r="S97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R99" s="2"/>
+      <c r="S99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R100" s="2"/>
+      <c r="S100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R101" s="2"/>
+      <c r="S101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R102" s="2"/>
+      <c r="S102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z102" s="2"/>
+      <c r="AA102" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Q107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -1066,10 +1066,15 @@
     <t>us-core-pmo</t>
   </si>
   <si>
+    <t xml:space="preserve">100821-8 (National POLST Form: A Portable Medical Order panel) | 100822-6 (Cardiopulmonary resuscitation orders) | 100823-4 (Initial portable medical treatment orders) | 100824-2 (Additional portable medical orders or instructions) | 100825-9 (Medically assisted nutrition orders) | 100970-3 (Portable medical order completion information) | 100826-7 (Portable medical order &amp;or advance directive review) | 100827-5 (Portable medical order discussion participants) | 100828-3 (Portable medical order administrative information)
+</t>
+  </si>
+  <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>[Portable Medical Order panel codes](https://loinc.org/100821-8)</t>
+    <t xml:space="preserve">[Portable Medical Order panel codes](https://loinc.org/100821-8)
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-pmo-servicerequest-category</t>
@@ -10338,7 +10343,7 @@
         <v>144</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>327</v>
@@ -10372,13 +10377,13 @@
         <v>78</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>78</v>
@@ -10416,10 +10421,10 @@
         <v>263</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10445,10 +10450,10 @@
         <v>104</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10456,7 +10461,7 @@
         <v>78</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>78</v>
@@ -10480,10 +10485,10 @@
         <v>149</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>78</v>
@@ -10501,7 +10506,7 @@
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10521,10 +10526,10 @@
         <v>263</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10547,70 +10552,70 @@
         <v>85</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Q80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="Q80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10630,14 +10635,14 @@
         <v>263</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
@@ -10659,13 +10664,13 @@
         <v>144</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
@@ -10691,13 +10696,13 @@
         <v>78</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>78</v>
@@ -10715,7 +10720,7 @@
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10735,10 +10740,10 @@
         <v>263</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10838,10 +10843,10 @@
         <v>263</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10911,10 +10916,10 @@
         <v>78</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE83" t="s" s="2">
         <v>78</v>
@@ -10943,10 +10948,10 @@
         <v>263</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10969,19 +10974,19 @@
         <v>85</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P84" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q84" t="s" s="2">
         <v>78</v>
@@ -11030,7 +11035,7 @@
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
@@ -11050,10 +11055,10 @@
         <v>263</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11079,16 +11084,16 @@
         <v>193</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>78</v>
@@ -11137,7 +11142,7 @@
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11157,14 +11162,14 @@
         <v>263</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -11186,13 +11191,13 @@
         <v>144</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11221,10 +11226,10 @@
         <v>330</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>78</v>
@@ -11242,7 +11247,7 @@
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -11251,7 +11256,7 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>96</v>
@@ -11262,10 +11267,10 @@
         <v>263</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11365,10 +11370,10 @@
         <v>263</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11438,10 +11443,10 @@
         <v>78</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE88" t="s" s="2">
         <v>78</v>
@@ -11470,10 +11475,10 @@
         <v>263</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11496,19 +11501,19 @@
         <v>85</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P89" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q89" t="s" s="2">
         <v>78</v>
@@ -11557,7 +11562,7 @@
         <v>78</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11577,10 +11582,10 @@
         <v>263</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11606,16 +11611,16 @@
         <v>193</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P90" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q90" t="s" s="2">
         <v>78</v>
@@ -11664,7 +11669,7 @@
         <v>78</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11684,10 +11689,10 @@
         <v>263</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11710,17 +11715,17 @@
         <v>85</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q91" t="s" s="2">
         <v>78</v>
@@ -11769,7 +11774,7 @@
         <v>78</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -11789,10 +11794,10 @@
         <v>263</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11815,13 +11820,13 @@
         <v>85</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -11872,7 +11877,7 @@
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>84</v>
@@ -11892,14 +11897,14 @@
         <v>263</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
@@ -11918,13 +11923,13 @@
         <v>85</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -11975,7 +11980,7 @@
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -11995,14 +12000,14 @@
         <v>263</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
@@ -12021,13 +12026,13 @@
         <v>85</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -12078,7 +12083,7 @@
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
@@ -12098,10 +12103,10 @@
         <v>263</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12124,13 +12129,13 @@
         <v>85</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -12160,10 +12165,10 @@
         <v>330</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>78</v>
@@ -12181,7 +12186,7 @@
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
@@ -12201,14 +12206,14 @@
         <v>263</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
@@ -12227,13 +12232,13 @@
         <v>85</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -12284,7 +12289,7 @@
         <v>78</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -12304,14 +12309,14 @@
         <v>263</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12330,16 +12335,16 @@
         <v>85</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12389,7 +12394,7 @@
         <v>78</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -12409,14 +12414,14 @@
         <v>263</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
@@ -12438,13 +12443,13 @@
         <v>144</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
@@ -12473,10 +12478,10 @@
         <v>330</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>78</v>
@@ -12494,7 +12499,7 @@
         <v>78</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -12514,14 +12519,14 @@
         <v>263</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
@@ -12540,16 +12545,16 @@
         <v>85</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
@@ -12599,7 +12604,7 @@
         <v>78</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12619,10 +12624,10 @@
         <v>263</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12648,10 +12653,10 @@
         <v>144</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12681,10 +12686,10 @@
         <v>330</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AB100" t="s" s="2">
         <v>78</v>
@@ -12702,7 +12707,7 @@
         <v>78</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
@@ -12722,10 +12727,10 @@
         <v>263</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12748,13 +12753,13 @@
         <v>85</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -12805,7 +12810,7 @@
         <v>78</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>76</v>
@@ -12825,10 +12830,10 @@
         <v>263</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12854,13 +12859,13 @@
         <v>144</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -12886,11 +12891,11 @@
         <v>78</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z102" s="2"/>
       <c r="AA102" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>78</v>
@@ -12908,7 +12913,7 @@
         <v>78</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
@@ -12928,10 +12933,10 @@
         <v>263</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12954,16 +12959,16 @@
         <v>85</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13013,7 +13018,7 @@
         <v>78</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13033,10 +13038,10 @@
         <v>263</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13059,13 +13064,13 @@
         <v>78</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -13116,7 +13121,7 @@
         <v>78</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13136,14 +13141,14 @@
         <v>263</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s" s="2">
@@ -13165,13 +13170,13 @@
         <v>153</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
@@ -13221,7 +13226,7 @@
         <v>78</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13241,10 +13246,10 @@
         <v>263</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13267,16 +13272,16 @@
         <v>85</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13326,7 +13331,7 @@
         <v>78</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -13346,14 +13351,14 @@
         <v>263</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
@@ -13375,16 +13380,16 @@
         <v>144</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P107" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q107" t="s" s="2">
         <v>78</v>
@@ -13412,10 +13417,10 @@
         <v>330</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AB107" t="s" s="2">
         <v>78</v>
@@ -13433,7 +13438,7 @@
         <v>78</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -13453,10 +13458,10 @@
         <v>263</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13479,13 +13484,13 @@
         <v>78</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>52</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -13536,7 +13541,7 @@
         <v>78</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -13556,10 +13561,10 @@
         <v>263</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13585,10 +13590,10 @@
         <v>193</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -13639,7 +13644,7 @@
         <v>78</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -13659,10 +13664,10 @@
         <v>263</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13685,16 +13690,16 @@
         <v>78</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -13744,7 +13749,7 @@
         <v>78</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -1011,16 +1011,13 @@
     <t>ServiceRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+    <t>Note: To allow for the resource life cycle, no constraint on intent, use "directive" in PMO document</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>directive</t>
   </si>
   <si>
     <t>The kind of service request.</t>
@@ -1066,8 +1063,7 @@
     <t>us-core-pmo</t>
   </si>
   <si>
-    <t xml:space="preserve">100821-8 (National POLST Form: A Portable Medical Order panel) | 100822-6 (Cardiopulmonary resuscitation orders) | 100823-4 (Initial portable medical treatment orders) | 100824-2 (Additional portable medical orders or instructions) | 100825-9 (Medically assisted nutrition orders) | 100970-3 (Portable medical order completion information) | 100826-7 (Portable medical order &amp;or advance directive review) | 100827-5 (Portable medical order discussion participants) | 100828-3 (Portable medical order administrative information)
-</t>
+    <t>Multiple portable medical order categories vs a single "PMO" category (2 vs 3 level code heirarchy)?</t>
   </si>
   <si>
     <t>extensible</t>
@@ -1077,7 +1073,7 @@
 </t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-pmo-servicerequest-category</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-portable-medical-orders</t>
   </si>
   <si>
     <t>ServiceRequest.priority</t>
@@ -1255,11 +1251,11 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|Group|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
-    <t>Individual or Entity the service is ordered for</t>
+    <t>limited to Patient</t>
   </si>
   <si>
     <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
@@ -1276,7 +1272,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter in which the request was created</t>
+    <t>**NOT USED WHEN PART OF A PMO DOCUMENT**</t>
   </si>
   <si>
     <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
@@ -1293,7 +1289,7 @@
 dateTimeTiming</t>
   </si>
   <si>
-    <t>When service should occur</t>
+    <t>Often just a start date</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
@@ -1329,7 +1325,7 @@
 </t>
   </si>
   <si>
-    <t>Date request signed</t>
+    <t>Date Order signed vs date of PMO document - same if part of PMO document</t>
   </si>
   <si>
     <t>When the request transitioned to being actionable.</t>
@@ -1342,11 +1338,11 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|PractitionerRole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|PractitionerRole)
 </t>
   </si>
   <si>
-    <t>Who/what is requesting service</t>
+    <t>Authored only by Practitioner</t>
   </si>
   <si>
     <t>The individual who initiated the request and has responsibility for its activation.</t>
@@ -2229,7 +2225,7 @@
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="108.3203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="58.3984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="58.125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -10145,7 +10141,7 @@
       </c>
       <c r="R76" s="2"/>
       <c r="S76" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>78</v>
@@ -10166,10 +10162,10 @@
         <v>149</v>
       </c>
       <c r="Z76" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AA76" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>78</v>
@@ -10207,10 +10203,10 @@
         <v>263</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10236,16 +10232,16 @@
         <v>144</v>
       </c>
       <c r="M77" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="O77" t="s" s="2">
+      <c r="P77" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="Q77" t="s" s="2">
         <v>78</v>
@@ -10270,29 +10266,29 @@
         <v>78</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Z77" t="s" s="2">
+      <c r="AA77" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AA77" t="s" s="2">
+      <c r="AB77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC77" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AD77" s="2"/>
       <c r="AE77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10312,13 +10308,13 @@
         <v>263</v>
       </c>
       <c r="B78" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D78" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="D78" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="E78" t="s" s="2">
         <v>78</v>
@@ -10343,16 +10339,16 @@
         <v>144</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N78" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O78" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="O78" t="s" s="2">
+      <c r="P78" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="Q78" t="s" s="2">
         <v>78</v>
@@ -10377,14 +10373,14 @@
         <v>78</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Z78" t="s" s="2">
+      <c r="AA78" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AA78" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AB78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10401,7 +10397,7 @@
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10421,10 +10417,10 @@
         <v>263</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10450,10 +10446,10 @@
         <v>104</v>
       </c>
       <c r="M79" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10461,7 +10457,7 @@
         <v>78</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>78</v>
@@ -10485,11 +10481,11 @@
         <v>149</v>
       </c>
       <c r="Z79" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AA79" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AA79" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AB79" t="s" s="2">
         <v>78</v>
       </c>
@@ -10506,7 +10502,7 @@
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10526,10 +10522,10 @@
         <v>263</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10552,26 +10548,26 @@
         <v>85</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="O80" t="s" s="2">
+      <c r="P80" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="P80" t="s" s="2">
+      <c r="Q80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R80" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Q80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="S80" t="s" s="2">
         <v>78</v>
       </c>
@@ -10615,7 +10611,7 @@
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10635,14 +10631,14 @@
         <v>263</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
@@ -10664,13 +10660,13 @@
         <v>144</v>
       </c>
       <c r="M81" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
@@ -10696,14 +10692,14 @@
         <v>78</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z81" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AA81" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AA81" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AB81" t="s" s="2">
         <v>78</v>
       </c>
@@ -10720,7 +10716,7 @@
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10740,10 +10736,10 @@
         <v>263</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10843,10 +10839,10 @@
         <v>263</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10916,16 +10912,16 @@
         <v>78</v>
       </c>
       <c r="AC83" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AD83" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AD83" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="AE83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>199</v>
@@ -10948,10 +10944,10 @@
         <v>263</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10974,19 +10970,19 @@
         <v>85</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="O84" t="s" s="2">
+      <c r="P84" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="Q84" t="s" s="2">
         <v>78</v>
@@ -11035,7 +11031,7 @@
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
@@ -11055,10 +11051,10 @@
         <v>263</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11084,16 +11080,16 @@
         <v>193</v>
       </c>
       <c r="M85" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="O85" t="s" s="2">
+      <c r="P85" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>78</v>
@@ -11142,7 +11138,7 @@
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11162,14 +11158,14 @@
         <v>263</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -11191,13 +11187,13 @@
         <v>144</v>
       </c>
       <c r="M86" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11223,14 +11219,14 @@
         <v>78</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z86" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AA86" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AA86" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AB86" t="s" s="2">
         <v>78</v>
       </c>
@@ -11247,7 +11243,7 @@
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -11256,7 +11252,7 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>96</v>
@@ -11267,10 +11263,10 @@
         <v>263</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11370,10 +11366,10 @@
         <v>263</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11443,16 +11439,16 @@
         <v>78</v>
       </c>
       <c r="AC88" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AD88" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AD88" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="AE88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>199</v>
@@ -11475,10 +11471,10 @@
         <v>263</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11501,19 +11497,19 @@
         <v>85</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="O89" t="s" s="2">
+      <c r="P89" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="Q89" t="s" s="2">
         <v>78</v>
@@ -11562,7 +11558,7 @@
         <v>78</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11582,10 +11578,10 @@
         <v>263</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11611,16 +11607,16 @@
         <v>193</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N90" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="O90" t="s" s="2">
+      <c r="P90" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="Q90" t="s" s="2">
         <v>78</v>
@@ -11669,7 +11665,7 @@
         <v>78</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11689,10 +11685,10 @@
         <v>263</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11715,17 +11711,17 @@
         <v>85</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q91" t="s" s="2">
         <v>78</v>
@@ -11774,7 +11770,7 @@
         <v>78</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -11794,10 +11790,10 @@
         <v>263</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11820,13 +11816,13 @@
         <v>85</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -11877,7 +11873,7 @@
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>84</v>
@@ -11897,14 +11893,14 @@
         <v>263</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
@@ -11923,13 +11919,13 @@
         <v>85</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -11980,7 +11976,7 @@
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12000,14 +11996,14 @@
         <v>263</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
@@ -12026,13 +12022,13 @@
         <v>85</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -12083,7 +12079,7 @@
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
@@ -12103,10 +12099,10 @@
         <v>263</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12129,13 +12125,13 @@
         <v>85</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -12162,14 +12158,14 @@
         <v>78</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z95" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AA95" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AA95" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AB95" t="s" s="2">
         <v>78</v>
       </c>
@@ -12186,7 +12182,7 @@
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
@@ -12206,14 +12202,14 @@
         <v>263</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
@@ -12232,13 +12228,13 @@
         <v>85</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -12289,7 +12285,7 @@
         <v>78</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -12309,14 +12305,14 @@
         <v>263</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12335,16 +12331,16 @@
         <v>85</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12394,7 +12390,7 @@
         <v>78</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -12414,14 +12410,14 @@
         <v>263</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
@@ -12443,13 +12439,13 @@
         <v>144</v>
       </c>
       <c r="M98" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
@@ -12475,14 +12471,14 @@
         <v>78</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z98" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AA98" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AA98" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AB98" t="s" s="2">
         <v>78</v>
       </c>
@@ -12499,7 +12495,7 @@
         <v>78</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -12519,14 +12515,14 @@
         <v>263</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
@@ -12545,16 +12541,16 @@
         <v>85</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
@@ -12604,7 +12600,7 @@
         <v>78</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12624,10 +12620,10 @@
         <v>263</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12653,10 +12649,10 @@
         <v>144</v>
       </c>
       <c r="M100" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12683,14 +12679,14 @@
         <v>78</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z100" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AA100" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AA100" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="AB100" t="s" s="2">
         <v>78</v>
       </c>
@@ -12707,7 +12703,7 @@
         <v>78</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
@@ -12727,10 +12723,10 @@
         <v>263</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12753,13 +12749,13 @@
         <v>85</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -12810,7 +12806,7 @@
         <v>78</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>76</v>
@@ -12830,10 +12826,10 @@
         <v>263</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12859,13 +12855,13 @@
         <v>144</v>
       </c>
       <c r="M102" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -12891,11 +12887,11 @@
         <v>78</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z102" s="2"/>
       <c r="AA102" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>78</v>
@@ -12913,7 +12909,7 @@
         <v>78</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
@@ -12933,10 +12929,10 @@
         <v>263</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12959,16 +12955,16 @@
         <v>85</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13018,7 +13014,7 @@
         <v>78</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13038,10 +13034,10 @@
         <v>263</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13064,13 +13060,13 @@
         <v>78</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -13121,7 +13117,7 @@
         <v>78</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13141,14 +13137,14 @@
         <v>263</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s" s="2">
@@ -13170,13 +13166,13 @@
         <v>153</v>
       </c>
       <c r="M105" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
@@ -13226,7 +13222,7 @@
         <v>78</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13246,10 +13242,10 @@
         <v>263</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13272,16 +13268,16 @@
         <v>85</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13331,7 +13327,7 @@
         <v>78</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -13351,14 +13347,14 @@
         <v>263</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
@@ -13380,16 +13376,16 @@
         <v>144</v>
       </c>
       <c r="M107" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="O107" t="s" s="2">
+      <c r="P107" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="Q107" t="s" s="2">
         <v>78</v>
@@ -13414,14 +13410,14 @@
         <v>78</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z107" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AA107" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AA107" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="AB107" t="s" s="2">
         <v>78</v>
       </c>
@@ -13438,7 +13434,7 @@
         <v>78</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -13458,10 +13454,10 @@
         <v>263</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13484,13 +13480,13 @@
         <v>78</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>52</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -13541,7 +13537,7 @@
         <v>78</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -13561,10 +13557,10 @@
         <v>263</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13590,10 +13586,10 @@
         <v>193</v>
       </c>
       <c r="M109" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -13644,7 +13640,7 @@
         <v>78</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -13664,10 +13660,10 @@
         <v>263</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13690,16 +13686,16 @@
         <v>78</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -13749,7 +13745,7 @@
         <v>78</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -1202,7 +1202,7 @@
     <t>2025-08-26</t>
   </si>
   <si>
-    <t xml:space="preserve">The US Core PMO ServiceRequest Profile defines constraints for Portable Medical Orders (PMO) based on the FHIR R4 ServiceRequest resource. It establishes minimum expectations for recording, searching, and fetching PMO-related ServiceRequest information, specifying core elements, extensions, vocabularies, and value sets that SHALL be present to promote interoperability for PMO use cases, such as POLST and MOLST.
+    <t xml:space="preserve">The US Core PMO ServiceRequest Profile inherits from the [FHIR ServiceRequest](https://hl7.org/fhir/R4/servicerequest.html) resource; refer to it for scope and usage definitions. This profile represents an order based on a PMO document and references the [US Core ADI DocumentReference Profile](StructureDefinition-us-core-adi-documentreference.html) to communicate the contents of the PMO document, such as POLST, MOLST, or other state-specific forms. PMO documents follow the patient across care settings and are typically stored as scanned images in EMRs/EHRs. Together, these two profiles satisfy the USCDI's PMO Order Data Element's intent to represent orders based on an individual's PMO. The US Core PMO ServiceRequest Profile establishes minimum expectations for recording, searching, and fetching PMO-related ServiceRequest information, specifying core elements, extensions, vocabularies, and value sets that SHALL be present to promote interoperability.
 </t>
   </si>
   <si>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="667">
   <si>
     <t>Property</t>
   </si>
@@ -1182,6 +1182,237 @@
   </si>
   <si>
     <t>May be identifiers or resources that caused the DocumentReference or referenced Document to be created.</t>
+  </si>
+  <si>
+    <t>us-core-ethnicity</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity</t>
+  </si>
+  <si>
+    <t>USCoreEthnicityExtension</t>
+  </si>
+  <si>
+    <t>US Core Ethnicity Extension</t>
+  </si>
+  <si>
+    <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The ethnicity codes used to represent these concepts are based upon the [Race &amp; Ethnicity - CDC (CDCREC)](https://phinvads.cdc.gov/vads/ViewCodeSystem.action?id=2.16.840.1.113883.6.238) which includes over 900 concepts for representing race and ethnicity of which 43 reference ethnicity.  The ethnicity concepts are grouped by and pre-mapped to the 2 OMB ethnicity categories:
+   - Hispanic or Latino
+   - Not Hispanic or Latino.</t>
+  </si>
+  <si>
+    <t>Complies with 2015 Edition Common Clinical Data Set for patient race.</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>element:Patient</t>
+  </si>
+  <si>
+    <t>element:RelatedPerson</t>
+  </si>
+  <si>
+    <t>element:Person</t>
+  </si>
+  <si>
+    <t>element:Practitioner</t>
+  </si>
+  <si>
+    <t>element:FamilyMemberHistory</t>
+  </si>
+  <si>
+    <t>US Core ethnicity Extension</t>
+  </si>
+  <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:ombCategory</t>
+  </si>
+  <si>
+    <t>ombCategory</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino|Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>The 2 ethnicity category codes according to the [OMB Standards for Maintaining, Collecting, and Presenting Federal Data on Race and Ethnicity, Statistical Policy Directive No. 15, as revised, October 30, 1997](https://www.govinfo.gov/content/pkg/FR-1997-10-30/pdf/97-28653.pdf).</t>
+  </si>
+  <si>
+    <t>Extension.extension:ombCategory.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:ombCategory.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:ombCategory.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:ombCategory.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.3</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:detailed</t>
+  </si>
+  <si>
+    <t>detailed</t>
+  </si>
+  <si>
+    <t>Extended ethnicity codes</t>
+  </si>
+  <si>
+    <t>The 41 CDC ethnicity codes that are grouped under one of the 2 OMB ethnicity category codes.</t>
+  </si>
+  <si>
+    <t>Extension.extension:detailed.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:detailed.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:detailed.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:detailed.value[x]</t>
+  </si>
+  <si>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.40.2.48.1</t>
+  </si>
+  <si>
+    <t>Extension.extension:text</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>ethnicity Text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the ethnicity concept(s).</t>
+  </si>
+  <si>
+    <t>Extension.extension:text.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:text.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:text.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:text.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>us-core-race</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-race</t>
+  </si>
+  <si>
+    <t>USCoreRaceExtension</t>
+  </si>
+  <si>
+    <t>US Core Race Extension</t>
+  </si>
+  <si>
+    <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The race codes used to represent these concepts are based upon the [Race &amp; Ethnicity - CDC (CDCREC)](https://phinvads.cdc.gov/vads/ViewCodeSystem.action?id=2.16.840.1.113883.6.238) which includes over 900 concepts for representing race and ethnicity of which 921 reference race.  The race concepts are grouped by and pre-mapped to the 5 OMB race categories:
+ - American Indian or Alaska Native
+ - Asian
+ - Black or African American
+ - Native Hawaiian or Other Pacific Islander
+ - White.</t>
+  </si>
+  <si>
+    <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The race codes used to represent these concepts are based upon the [Race &amp; Ethnicity - CDC (CDCREC)](https://phinvads.cdc.gov/vads/ViewCodeSystem.action?id=2.16.840.1.113883.6.238) which includes over 900 concepts for representing race and ethnicity of which 921 reference race.  The race concepts are grouped by and pre-mapped to the 5 OMB race categories:
+   - American Indian or Alaska Native
+   - Asian
+   - Black or African American
+   - Native Hawaiian or Other Pacific Islander
+   - White.</t>
+  </si>
+  <si>
+    <t>ele-1
+us-core-23</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}us-core-23:If "ASKU" or "UNK" are present, then no other OMB race categories can be present. {extension.where(url = 'ombCategory').value.where(code in 'ASKU'|'UNK').exists() implies extension.where(url = 'ombCategory').count() = 1}</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>American Indian or Alaska Native|Asian|Black or African American|Native Hawaiian or Other Pacific Islander|White</t>
+  </si>
+  <si>
+    <t>The 5 race category codes according to the [OMB Standards for Maintaining, Collecting, and Presenting Federal Data on Race and Ethnicity, Statistical Policy Directive No. 15, as revised, October 30, 1997](https://www.govinfo.gov/content/pkg/FR-1997-10-30/pdf/97-28653.pdf).</t>
+  </si>
+  <si>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.4.642.2.575</t>
+  </si>
+  <si>
+    <t>Extended race codes</t>
+  </si>
+  <si>
+    <t>The 900+ CDC race codes that are grouped under one of the 5 OMB race category codes:.</t>
+  </si>
+  <si>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.25</t>
+  </si>
+  <si>
+    <t>Race Text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the race concept(s).</t>
   </si>
   <si>
     <t>us-core-pmo-servicerequest</t>
@@ -2015,7 +2246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2242,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>378</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -2256,7 +2487,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>379</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -2288,14 +2519,16 @@
         <v>24</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" t="s" s="2">
+        <v>379</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
@@ -2316,7 +2549,7 @@
         <v>30</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>31</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39">
@@ -2324,7 +2557,7 @@
         <v>32</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>381</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -2332,7 +2565,7 @@
         <v>34</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41">
@@ -2348,6 +2581,412 @@
         <v>37</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>38</v>
       </c>
     </row>
@@ -2358,7 +2997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK109"/>
+  <dimension ref="A1:AK149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2370,7 +3009,7 @@
     <col min="1" max="1" width="25.75390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="43.578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.56640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="37.7265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2392,7 +3031,7 @@
     <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="170.19921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="219.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="58.125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -8497,21 +9136,21 @@
         <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>383</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>75</v>
@@ -8526,10 +9165,10 @@
         <v>78</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -8580,7 +9219,7 @@
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8589,10 +9228,10 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>386</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -8600,10 +9239,10 @@
         <v>374</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8623,20 +9262,18 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>75</v>
@@ -8685,7 +9322,7 @@
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
@@ -8705,10 +9342,10 @@
         <v>374</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8716,10 +9353,10 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>75</v>
@@ -8728,16 +9365,16 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -8776,31 +9413,31 @@
         <v>75</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -8808,12 +9445,14 @@
         <v>374</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="E62" t="s" s="2">
         <v>75</v>
       </c>
@@ -8825,26 +9464,24 @@
         <v>84</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
         <v>75</v>
@@ -8893,19 +9530,19 @@
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -8913,10 +9550,10 @@
         <v>374</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8939,17 +9576,15 @@
         <v>75</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>75</v>
@@ -8974,13 +9609,13 @@
         <v>75</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AB63" t="s" s="2">
         <v>75</v>
@@ -8998,7 +9633,7 @@
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -9010,7 +9645,7 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
@@ -9018,21 +9653,21 @@
         <v>374</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>75</v>
@@ -9044,16 +9679,16 @@
         <v>75</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9091,31 +9726,31 @@
         <v>75</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
@@ -9123,21 +9758,21 @@
         <v>374</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>75</v>
@@ -9149,16 +9784,16 @@
         <v>75</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>122</v>
+        <v>401</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>123</v>
+        <v>402</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>124</v>
+        <v>403</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
@@ -9166,7 +9801,7 @@
       </c>
       <c r="R65" s="2"/>
       <c r="S65" t="s" s="2">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>75</v>
@@ -9208,13 +9843,13 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>125</v>
+        <v>404</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
@@ -9228,21 +9863,21 @@
         <v>374</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>75</v>
@@ -9254,17 +9889,15 @@
         <v>75</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>127</v>
+        <v>327</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>226</v>
+        <v>407</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>75</v>
@@ -9289,13 +9922,11 @@
         <v>75</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="Z66" s="2"/>
       <c r="AA66" t="s" s="2">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>75</v>
@@ -9313,19 +9944,19 @@
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
@@ -9333,14 +9964,16 @@
         <v>374</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="E67" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" t="s" s="2">
@@ -9353,7 +9986,7 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>75</v>
@@ -9362,17 +9995,13 @@
         <v>127</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>142</v>
+        <v>413</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
         <v>75</v>
       </c>
@@ -9420,7 +10049,7 @@
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -9440,7 +10069,7 @@
         <v>374</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>396</v>
@@ -9454,7 +10083,7 @@
         <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>75</v>
@@ -9463,20 +10092,18 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>75</v>
@@ -9525,19 +10152,19 @@
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>396</v>
+        <v>224</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
@@ -9545,14 +10172,14 @@
         <v>374</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" t="s" s="2">
@@ -9568,19 +10195,19 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>401</v>
+        <v>127</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>402</v>
+        <v>226</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>403</v>
+        <v>227</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>404</v>
+        <v>144</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9618,19 +10245,19 @@
         <v>75</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9642,7 +10269,7 @@
         <v>75</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
@@ -9650,10 +10277,10 @@
         <v>374</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9661,10 +10288,10 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>75</v>
@@ -9673,19 +10300,19 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>98</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -9693,7 +10320,7 @@
       </c>
       <c r="R70" s="2"/>
       <c r="S70" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>75</v>
@@ -9735,19 +10362,19 @@
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
@@ -9755,21 +10382,21 @@
         <v>374</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>75</v>
@@ -9778,16 +10405,16 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -9814,13 +10441,11 @@
         <v>75</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="Z71" s="2"/>
       <c r="AA71" t="s" s="2">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>75</v>
@@ -9838,13 +10463,13 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>75</v>
@@ -9858,39 +10483,41 @@
         <v>374</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="E72" t="s" s="2">
-        <v>415</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>416</v>
+        <v>127</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9941,7 +10568,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>414</v>
+        <v>228</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -9953,7 +10580,7 @@
         <v>75</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
@@ -9961,14 +10588,14 @@
         <v>374</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
@@ -9984,23 +10611,19 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>421</v>
+        <v>222</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>75</v>
       </c>
@@ -10048,7 +10671,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>419</v>
+        <v>224</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -10060,7 +10683,7 @@
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
@@ -10071,39 +10694,39 @@
         <v>425</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>426</v>
+        <v>226</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>427</v>
+        <v>227</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>428</v>
+        <v>144</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10129,43 +10752,43 @@
         <v>75</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>425</v>
+        <v>228</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
@@ -10173,10 +10796,10 @@
         <v>374</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10190,25 +10813,25 @@
         <v>84</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
@@ -10216,7 +10839,7 @@
       </c>
       <c r="R75" s="2"/>
       <c r="S75" t="s" s="2">
-        <v>75</v>
+        <v>421</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>75</v>
@@ -10234,13 +10857,13 @@
         <v>75</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>435</v>
+        <v>75</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>436</v>
+        <v>75</v>
       </c>
       <c r="AB75" t="s" s="2">
         <v>75</v>
@@ -10258,7 +10881,7 @@
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>84</v>
@@ -10270,7 +10893,7 @@
         <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
@@ -10278,10 +10901,10 @@
         <v>374</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10289,35 +10912,31 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>75</v>
       </c>
@@ -10341,35 +10960,37 @@
         <v>75</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>442</v>
+        <v>75</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AD76" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AE76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
@@ -10383,54 +11004,50 @@
         <v>374</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="D77" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="R77" s="2"/>
       <c r="S77" t="s" s="2">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>75</v>
@@ -10448,13 +11065,13 @@
         <v>75</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>447</v>
+        <v>75</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>448</v>
+        <v>75</v>
       </c>
       <c r="AB77" t="s" s="2">
         <v>75</v>
@@ -10472,19 +11089,19 @@
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
@@ -10492,10 +11109,10 @@
         <v>374</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10506,7 +11123,7 @@
         <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>75</v>
@@ -10515,25 +11132,23 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>104</v>
+        <v>428</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="R78" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="R78" s="2"/>
       <c r="S78" t="s" s="2">
         <v>75</v>
       </c>
@@ -10553,13 +11168,13 @@
         <v>75</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>453</v>
+        <v>75</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>454</v>
+        <v>75</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>75</v>
@@ -10577,7 +11192,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10594,13 +11209,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10617,32 +11232,26 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="R79" t="s" s="2">
-        <v>461</v>
-      </c>
+      <c r="R79" s="2"/>
       <c r="S79" t="s" s="2">
         <v>75</v>
       </c>
@@ -10686,63 +11295,61 @@
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>75</v>
+        <v>435</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>96</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>463</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>464</v>
+        <v>222</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>75</v>
@@ -10767,13 +11374,13 @@
         <v>75</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>467</v>
+        <v>75</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>468</v>
+        <v>75</v>
       </c>
       <c r="AB80" t="s" s="2">
         <v>75</v>
@@ -10791,7 +11398,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>462</v>
+        <v>224</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10803,18 +11410,18 @@
         <v>75</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>469</v>
+        <v>390</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>469</v>
+        <v>390</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10822,10 +11429,10 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>75</v>
@@ -10837,13 +11444,13 @@
         <v>75</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -10882,56 +11489,58 @@
         <v>75</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AE81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>470</v>
+        <v>391</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="D82" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="E82" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>75</v>
@@ -10943,14 +11552,12 @@
         <v>127</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>226</v>
+        <v>438</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>75</v>
@@ -10987,16 +11594,16 @@
         <v>75</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>228</v>
@@ -11016,13 +11623,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>471</v>
+        <v>395</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>471</v>
+        <v>396</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11033,7 +11640,7 @@
         <v>76</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>75</v>
@@ -11042,23 +11649,19 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>472</v>
+        <v>222</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>75</v>
       </c>
@@ -11106,66 +11709,64 @@
         <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>476</v>
+        <v>224</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>477</v>
+        <v>398</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>478</v>
+        <v>226</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>479</v>
+        <v>227</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>75</v>
       </c>
@@ -11201,74 +11802,74 @@
         <v>75</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>482</v>
+        <v>228</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>484</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>485</v>
+        <v>401</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>487</v>
+        <v>403</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
@@ -11276,7 +11877,7 @@
       </c>
       <c r="R85" s="2"/>
       <c r="S85" t="s" s="2">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>75</v>
@@ -11294,13 +11895,13 @@
         <v>75</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>488</v>
+        <v>75</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>489</v>
+        <v>75</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>75</v>
@@ -11318,30 +11919,30 @@
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>483</v>
+        <v>404</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>490</v>
+        <v>75</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>491</v>
+        <v>405</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>491</v>
+        <v>406</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11349,7 +11950,7 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>84</v>
@@ -11364,13 +11965,13 @@
         <v>75</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>223</v>
+        <v>408</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -11397,13 +11998,13 @@
         <v>75</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>75</v>
+        <v>439</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>75</v>
@@ -11421,7 +12022,7 @@
         <v>75</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -11433,22 +12034,24 @@
         <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>492</v>
+        <v>411</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="D87" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="E87" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
@@ -11470,14 +12073,12 @@
         <v>127</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>226</v>
+        <v>441</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>75</v>
@@ -11514,16 +12115,16 @@
         <v>75</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>228</v>
@@ -11543,13 +12144,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>493</v>
+        <v>415</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>493</v>
+        <v>396</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11560,7 +12161,7 @@
         <v>76</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>75</v>
@@ -11569,23 +12170,19 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>472</v>
+        <v>222</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
         <v>75</v>
       </c>
@@ -11633,66 +12230,64 @@
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>476</v>
+        <v>224</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>494</v>
+        <v>416</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>494</v>
+        <v>398</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>495</v>
+        <v>226</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>479</v>
+        <v>227</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>75</v>
       </c>
@@ -11728,42 +12323,42 @@
         <v>75</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>482</v>
+        <v>228</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>496</v>
+        <v>400</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11771,7 +12366,7 @@
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>84</v>
@@ -11783,27 +12378,27 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>497</v>
+        <v>98</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>498</v>
+        <v>401</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="R90" s="2"/>
       <c r="S90" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>75</v>
@@ -11845,10 +12440,10 @@
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>496</v>
+        <v>404</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>84</v>
@@ -11857,18 +12452,18 @@
         <v>75</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>501</v>
+        <v>418</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11882,22 +12477,22 @@
         <v>84</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>502</v>
+        <v>327</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>503</v>
+        <v>407</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>504</v>
+        <v>408</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -11924,13 +12519,11 @@
         <v>75</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="Z91" s="2"/>
       <c r="AA91" t="s" s="2">
-        <v>75</v>
+        <v>443</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>75</v>
@@ -11948,10 +12541,10 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>501</v>
+        <v>410</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>84</v>
@@ -11965,21 +12558,23 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>505</v>
+        <v>420</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="D92" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="E92" t="s" s="2">
-        <v>506</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>84</v>
@@ -11991,16 +12586,16 @@
         <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>507</v>
+        <v>127</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -12051,34 +12646,34 @@
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>505</v>
+        <v>228</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>510</v>
+        <v>424</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>510</v>
+        <v>396</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>511</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
@@ -12088,22 +12683,22 @@
         <v>84</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>512</v>
+        <v>221</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>513</v>
+        <v>222</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>514</v>
+        <v>223</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -12154,7 +12749,7 @@
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>510</v>
+        <v>224</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12166,29 +12761,29 @@
         <v>75</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>515</v>
+        <v>425</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>515</v>
+        <v>398</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>75</v>
@@ -12197,18 +12792,20 @@
         <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>516</v>
+        <v>127</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>517</v>
+        <v>226</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>75</v>
@@ -12233,92 +12830,94 @@
         <v>75</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>519</v>
+        <v>75</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>520</v>
+        <v>75</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AE94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>515</v>
+        <v>228</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>521</v>
+        <v>426</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>522</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>523</v>
+        <v>401</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="R95" s="2"/>
       <c r="S95" t="s" s="2">
-        <v>75</v>
+        <v>421</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>75</v>
@@ -12360,10 +12959,10 @@
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>521</v>
+        <v>404</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>84</v>
@@ -12372,51 +12971,49 @@
         <v>75</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>525</v>
+        <v>427</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>525</v>
+        <v>406</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>526</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>527</v>
+        <v>221</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>75</v>
@@ -12465,7 +13062,7 @@
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>525</v>
+        <v>410</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -12482,21 +13079,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>531</v>
+        <v>404</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>531</v>
+        <v>404</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>532</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>84</v>
@@ -12508,19 +13105,19 @@
         <v>75</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>533</v>
+        <v>401</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>534</v>
+        <v>402</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>535</v>
+        <v>403</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12528,7 +13125,7 @@
       </c>
       <c r="R97" s="2"/>
       <c r="S97" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>75</v>
@@ -12546,13 +13143,13 @@
         <v>75</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>536</v>
+        <v>75</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>537</v>
+        <v>75</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>75</v>
@@ -12570,10 +13167,10 @@
         <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>531</v>
+        <v>404</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>84</v>
@@ -12582,29 +13179,29 @@
         <v>75</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>538</v>
+        <v>410</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>538</v>
+        <v>410</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>539</v>
+        <v>75</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>75</v>
@@ -12613,20 +13210,18 @@
         <v>75</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>540</v>
+        <v>428</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>541</v>
+        <v>407</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>75</v>
@@ -12675,13 +13270,13 @@
         <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>538</v>
+        <v>410</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>75</v>
@@ -12692,17 +13287,17 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>544</v>
+        <v>453</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>544</v>
+        <v>453</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>75</v>
+        <v>455</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
@@ -12718,16 +13313,16 @@
         <v>75</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -12754,13 +13349,13 @@
         <v>75</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>547</v>
+        <v>75</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>548</v>
+        <v>75</v>
       </c>
       <c r="AB99" t="s" s="2">
         <v>75</v>
@@ -12778,7 +13373,7 @@
         <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>544</v>
+        <v>453</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12790,18 +13385,18 @@
         <v>75</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>96</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>549</v>
+        <v>459</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>549</v>
+        <v>459</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12812,7 +13407,7 @@
         <v>76</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>75</v>
@@ -12824,15 +13419,17 @@
         <v>85</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>550</v>
+        <v>86</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>545</v>
+        <v>87</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
         <v>75</v>
@@ -12881,30 +13478,30 @@
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>549</v>
+        <v>90</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>552</v>
+        <v>460</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>552</v>
+        <v>460</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12915,10 +13512,10 @@
         <v>76</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>75</v>
@@ -12927,17 +13524,15 @@
         <v>85</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>553</v>
+        <v>93</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
         <v>75</v>
@@ -12962,11 +13557,13 @@
         <v>75</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z101" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AA101" t="s" s="2">
-        <v>556</v>
+        <v>75</v>
       </c>
       <c r="AB101" t="s" s="2">
         <v>75</v>
@@ -12984,13 +13581,13 @@
         <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>552</v>
+        <v>95</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>75</v>
@@ -13001,13 +13598,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>557</v>
+        <v>461</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>557</v>
+        <v>461</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13018,28 +13615,28 @@
         <v>76</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J102" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>558</v>
+        <v>98</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>559</v>
+        <v>99</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>560</v>
+        <v>100</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>561</v>
+        <v>101</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -13089,13 +13686,13 @@
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>557</v>
+        <v>102</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>75</v>
@@ -13106,13 +13703,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>562</v>
+        <v>462</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>562</v>
+        <v>462</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13123,7 +13720,7 @@
         <v>76</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>75</v>
@@ -13135,15 +13732,17 @@
         <v>75</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>563</v>
+        <v>104</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>564</v>
+        <v>105</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
         <v>75</v>
@@ -13168,13 +13767,13 @@
         <v>75</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AB103" t="s" s="2">
         <v>75</v>
@@ -13192,13 +13791,13 @@
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>562</v>
+        <v>111</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>75</v>
@@ -13209,24 +13808,24 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>566</v>
+        <v>463</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>566</v>
+        <v>463</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>567</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>75</v>
@@ -13238,16 +13837,16 @@
         <v>75</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>568</v>
+        <v>115</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>569</v>
+        <v>116</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>570</v>
+        <v>117</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -13297,13 +13896,13 @@
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>566</v>
+        <v>118</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>75</v>
@@ -13314,17 +13913,17 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>571</v>
+        <v>464</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>571</v>
+        <v>464</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s" s="2">
@@ -13340,19 +13939,19 @@
         <v>75</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>572</v>
+        <v>121</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>573</v>
+        <v>122</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>574</v>
+        <v>123</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>575</v>
+        <v>124</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
@@ -13402,7 +14001,7 @@
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>571</v>
+        <v>125</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13414,22 +14013,22 @@
         <v>75</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>576</v>
+        <v>465</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>576</v>
+        <v>465</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>577</v>
+        <v>141</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
@@ -13445,23 +14044,21 @@
         <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>578</v>
+        <v>226</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>579</v>
+        <v>466</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="P106" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
         <v>75</v>
       </c>
@@ -13485,13 +14082,13 @@
         <v>75</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>582</v>
+        <v>75</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>583</v>
+        <v>75</v>
       </c>
       <c r="AB106" t="s" s="2">
         <v>75</v>
@@ -13509,7 +14106,7 @@
         <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>576</v>
+        <v>132</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -13521,22 +14118,22 @@
         <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>584</v>
+        <v>467</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>584</v>
+        <v>467</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
@@ -13549,22 +14146,26 @@
         <v>75</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>585</v>
+        <v>127</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="Q107" t="s" s="2">
         <v>75</v>
       </c>
@@ -13612,7 +14213,7 @@
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>584</v>
+        <v>146</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -13624,18 +14225,18 @@
         <v>75</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>587</v>
+        <v>468</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>587</v>
+        <v>468</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13646,7 +14247,7 @@
         <v>76</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>75</v>
@@ -13658,15 +14259,17 @@
         <v>85</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>588</v>
+        <v>469</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
         <v>75</v>
@@ -13715,13 +14318,13 @@
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>587</v>
+        <v>468</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>75</v>
@@ -13732,13 +14335,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>590</v>
+        <v>472</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>590</v>
+        <v>472</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13758,19 +14361,19 @@
         <v>75</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>591</v>
+        <v>473</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>592</v>
+        <v>474</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>593</v>
+        <v>475</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>594</v>
+        <v>476</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -13820,7 +14423,7 @@
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>590</v>
+        <v>472</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -13832,6 +14435,4196 @@
         <v>75</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R112" s="2"/>
+      <c r="S112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Q113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R113" s="2"/>
+      <c r="S113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R114" s="2"/>
+      <c r="S114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Q116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R116" s="2"/>
+      <c r="S116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AD116" s="2"/>
+      <c r="AE116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="E117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Q117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Q119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R121" s="2"/>
+      <c r="S121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R122" s="2"/>
+      <c r="S122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Q123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R123" s="2"/>
+      <c r="S123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="P124" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Q124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R124" s="2"/>
+      <c r="S124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R125" s="2"/>
+      <c r="S125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R126" s="2"/>
+      <c r="S126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R127" s="2"/>
+      <c r="S127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P128" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Q128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R128" s="2"/>
+      <c r="S128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Q129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R129" s="2"/>
+      <c r="S129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O130" s="2"/>
+      <c r="P130" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Q130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R130" s="2"/>
+      <c r="S130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R131" s="2"/>
+      <c r="S131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R132" s="2"/>
+      <c r="S132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R133" s="2"/>
+      <c r="S133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R134" s="2"/>
+      <c r="S134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R135" s="2"/>
+      <c r="S135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R136" s="2"/>
+      <c r="S136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R137" s="2"/>
+      <c r="S137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R138" s="2"/>
+      <c r="S138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R139" s="2"/>
+      <c r="S139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R140" s="2"/>
+      <c r="S140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R141" s="2"/>
+      <c r="S141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z141" s="2"/>
+      <c r="AA141" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R142" s="2"/>
+      <c r="S142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R143" s="2"/>
+      <c r="S143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R144" s="2"/>
+      <c r="S144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R145" s="2"/>
+      <c r="S145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="P146" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="Q146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R146" s="2"/>
+      <c r="S146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R147" s="2"/>
+      <c r="S147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R148" s="2"/>
+      <c r="S148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R149" s="2"/>
+      <c r="S149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK149" t="s" s="2">
         <v>96</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="711">
   <si>
     <t>Property</t>
   </si>
@@ -2113,6 +2113,142 @@
     <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource.  (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update.  Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+  </si>
+  <si>
+    <t>test-binding</t>
+  </si>
+  <si>
+    <t>http://example.org/fhir/StructureDefinition/test-binding</t>
+  </si>
+  <si>
+    <t>TestBinding</t>
+  </si>
+  <si>
+    <t>Test Binding</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>A profile on the FHIR R4 Basic resource for representing a referral, with the code element constrained to the LOINC valid HL7 attachment requests value set.</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Basic</t>
+  </si>
+  <si>
+    <t>Z-resource
+Extension-resourceCustom-resource</t>
+  </si>
+  <si>
+    <t>Referral Basic Profile</t>
+  </si>
+  <si>
+    <t>A profile on Basic resource for representing referral information.</t>
+  </si>
+  <si>
+    <t>Basic.id</t>
+  </si>
+  <si>
+    <t>Basic.meta</t>
+  </si>
+  <si>
+    <t>Basic.implicitRules</t>
+  </si>
+  <si>
+    <t>Basic.language</t>
+  </si>
+  <si>
+    <t>Basic.text</t>
+  </si>
+  <si>
+    <t>Basic.contained</t>
+  </si>
+  <si>
+    <t>Basic.extension</t>
+  </si>
+  <si>
+    <t>Basic.modifierExtension</t>
+  </si>
+  <si>
+    <t>Basic.identifier</t>
+  </si>
+  <si>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>Identifier assigned to the resource for business purposes, outside the context of FHIR.</t>
+  </si>
+  <si>
+    <t>Basic.code</t>
+  </si>
+  <si>
+    <t>Kind of attachment</t>
+  </si>
+  <si>
+    <t>constrained to valid HL7 attachment request codes from LOINC.</t>
+  </si>
+  <si>
+    <t>Because resource references will only be able to indicate 'Basic', the type of reference will need to be specified in a Profile identified as part of the resource.  Refer to the resource notes section for information on appropriate terminologies for this code.
+This element is labeled as a modifier because it defines the meaning of the resource and cannot be ignored.</t>
+  </si>
+  <si>
+    <t>Must be able to distinguish different types of Basic resources.</t>
+  </si>
+  <si>
+    <t>bound to LOINC valid HL7 attachment requests.</t>
+  </si>
+  <si>
+    <t>http://loinc.org/vs/valid-hl7-attachment-requests</t>
+  </si>
+  <si>
+    <t>Basic.subject</t>
+  </si>
+  <si>
+    <t>Identifies the focus of this resource</t>
+  </si>
+  <si>
+    <t>Identifies the patient, practitioner, device or any other resource that is the "focus" of this resource.</t>
+  </si>
+  <si>
+    <t>Optional as not all potential resources will have subjects.  Resources associated with multiple subjects can handle this via extension.</t>
+  </si>
+  <si>
+    <t>Needed for partitioning the resource by Patient.</t>
+  </si>
+  <si>
+    <t>Basic.created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>When created</t>
+  </si>
+  <si>
+    <t>Identifies when the resource was first created.</t>
+  </si>
+  <si>
+    <t>Allows ordering resource instances by time.</t>
+  </si>
+  <si>
+    <t>Basic.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who created</t>
+  </si>
+  <si>
+    <t>Indicates who was responsible for creating the resource instance.</t>
+  </si>
+  <si>
+    <t>Needed for partitioning the resource.</t>
   </si>
 </sst>
 </file>
@@ -2246,7 +2382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2990,6 +3126,168 @@
         <v>38</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2997,7 +3295,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK149"/>
+  <dimension ref="A1:AK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18628,6 +18926,1476 @@
         <v>96</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R150" s="2"/>
+      <c r="S150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R151" s="2"/>
+      <c r="S151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R152" s="2"/>
+      <c r="S152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O153" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R153" s="2"/>
+      <c r="S153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R154" s="2"/>
+      <c r="S154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="P155" s="2"/>
+      <c r="Q155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R155" s="2"/>
+      <c r="S155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R156" s="2"/>
+      <c r="S156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R157" s="2"/>
+      <c r="S157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O158" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P158" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Q158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R158" s="2"/>
+      <c r="S158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="N159" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R159" s="2"/>
+      <c r="S159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F160" s="2"/>
+      <c r="G160" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="O160" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="P160" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="Q160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R160" s="2"/>
+      <c r="S160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="P161" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="Q161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R161" s="2"/>
+      <c r="S161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="O162" s="2"/>
+      <c r="P162" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="Q162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R162" s="2"/>
+      <c r="S162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="O163" s="2"/>
+      <c r="P163" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="Q163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R163" s="2"/>
+      <c r="S163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
